--- a/resultados/baseInterpolacion.xlsx
+++ b/resultados/baseInterpolacion.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2659 +417,3067 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39052</v>
+        <v>38322</v>
       </c>
       <c r="B2">
-        <v>0.2834363249928538</v>
+        <v>0.1529057483274712</v>
       </c>
       <c r="D2">
-        <v>0.2834363249928538</v>
+        <v>0.1529057483274712</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39083</v>
+        <v>38353</v>
       </c>
       <c r="B3">
-        <v>0.0901858621945974</v>
+        <v>0.0192421964458236</v>
       </c>
       <c r="D3">
-        <v>0.117028952322084</v>
+        <v>0.07558867737358445</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39114</v>
+        <v>38384</v>
       </c>
       <c r="B4">
-        <v>0.1114135873282339</v>
+        <v>0.009908130507954697</v>
       </c>
       <c r="C4">
-        <v>0.1616785915052284</v>
+        <v>0.06068535842708315</v>
       </c>
       <c r="D4">
-        <v>0.1377975760948406</v>
+        <v>0.07612363551399468</v>
       </c>
       <c r="E4">
-        <v>0.1794209511365928</v>
+        <v>0.1015393537383501</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39142</v>
+        <v>38412</v>
       </c>
       <c r="B5">
-        <v>0.1320928607156908</v>
+        <v>0.07860699182534125</v>
       </c>
       <c r="C5">
-        <v>0.1112307700795074</v>
+        <v>0.03591910625970651</v>
       </c>
       <c r="D5">
-        <v>0.1283572771349247</v>
+        <v>0.07855096690533075</v>
       </c>
       <c r="E5">
-        <v>0.1277279351839498</v>
+        <v>0.07675442659763664</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>39173</v>
+        <v>38443</v>
       </c>
       <c r="B6">
-        <v>0.1492627821917754</v>
+        <v>0.07798048667348562</v>
       </c>
       <c r="C6">
-        <v>0.1309230767452333</v>
+        <v>0.05549853633559385</v>
       </c>
       <c r="D6">
-        <v>0.1376949117403328</v>
+        <v>0.07784834520588935</v>
       </c>
       <c r="E6">
-        <v>0.1346165883233661</v>
+        <v>0.07750764920840493</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>39203</v>
+        <v>38473</v>
       </c>
       <c r="B7">
-        <v>0.1444318371028183</v>
+        <v>0.07699625436896965</v>
       </c>
       <c r="C7">
-        <v>0.1419291600034281</v>
+        <v>0.07786124428926551</v>
       </c>
       <c r="D7">
-        <v>0.1343222671826848</v>
+        <v>0.07724388621852377</v>
       </c>
       <c r="E7">
-        <v>0.1334581520193141</v>
+        <v>0.07788106610991465</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>39234</v>
+        <v>38504</v>
       </c>
       <c r="B8">
-        <v>0.1185291129970385</v>
+        <v>0.0762693151194526</v>
       </c>
       <c r="C8">
-        <v>0.1374079107638774</v>
+        <v>0.07708201872063596</v>
       </c>
       <c r="D8">
-        <v>0.1268129163529917</v>
+        <v>0.07687950625738157</v>
       </c>
       <c r="E8">
-        <v>0.1329433650920031</v>
+        <v>0.07732391256059824</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>39264</v>
+        <v>38534</v>
       </c>
       <c r="B9">
-        <v>0.1105941754183132</v>
+        <v>0.07508202847019613</v>
       </c>
       <c r="C9">
-        <v>0.1245183751727234</v>
+        <v>0.07611586598620612</v>
       </c>
       <c r="D9">
-        <v>0.1382000085039456</v>
+        <v>0.07680144390106942</v>
       </c>
       <c r="E9">
-        <v>0.1331117306798741</v>
+        <v>0.0769749454589916</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>39295</v>
+        <v>38565</v>
       </c>
       <c r="B10">
-        <v>0.1216752919314127</v>
+        <v>0.07428304839041895</v>
       </c>
       <c r="C10">
-        <v>0.1169328601155881</v>
+        <v>0.07521146399335589</v>
       </c>
       <c r="D10">
-        <v>0.1631798949595178</v>
+        <v>0.0742353153154896</v>
       </c>
       <c r="E10">
-        <v>0.1427309399388184</v>
+        <v>0.07597208849131355</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>39326</v>
+        <v>38596</v>
       </c>
       <c r="B11">
-        <v>0.1540185097836573</v>
+        <v>0.07218388526127684</v>
       </c>
       <c r="C11">
-        <v>0.128762659044461</v>
+        <v>0.07384965404063061</v>
       </c>
       <c r="D11">
-        <v>0.1617504449088501</v>
+        <v>0.06860430481126686</v>
       </c>
       <c r="E11">
-        <v>0.1543767827907712</v>
+        <v>0.07321368800927532</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>39356</v>
+        <v>38626</v>
       </c>
       <c r="B12">
-        <v>0.1366620395211204</v>
+        <v>0.07208052976222692</v>
       </c>
       <c r="C12">
-        <v>0.1374519470787301</v>
+        <v>0.07284915447130756</v>
       </c>
       <c r="D12">
-        <v>0.1625398484884141</v>
+        <v>0.06114959558918852</v>
       </c>
       <c r="E12">
-        <v>0.162490062785594</v>
+        <v>0.06799640523864835</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>39387</v>
+        <v>38657</v>
       </c>
       <c r="B13">
-        <v>0.1522653352211594</v>
+        <v>0.0720659861732818</v>
       </c>
       <c r="C13">
-        <v>0.1476486281753124</v>
+        <v>0.07211013373226184</v>
       </c>
       <c r="D13">
-        <v>0.1816219083913968</v>
+        <v>0.05932091888598417</v>
       </c>
       <c r="E13">
-        <v>0.1686374005962203</v>
+        <v>0.06302493976214653</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>39417</v>
+        <v>38687</v>
       </c>
       <c r="B14">
-        <v>0.2052743248404075</v>
+        <v>0.05865353128161611</v>
       </c>
       <c r="C14">
-        <v>0.1647338998608957</v>
+        <v>0.06760001573904161</v>
       </c>
       <c r="D14">
-        <v>0.1971168554838455</v>
+        <v>0.06321180904145537</v>
       </c>
       <c r="E14">
-        <v>0.1804262041212188</v>
+        <v>0.06122744117220936</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>39448</v>
+        <v>38718</v>
       </c>
       <c r="B15">
-        <v>0.156532090220023</v>
+        <v>0.05838312474564977</v>
       </c>
       <c r="C15">
-        <v>0.1713572500938633</v>
+        <v>0.06303421406684921</v>
       </c>
       <c r="D15">
-        <v>0.1292246854155489</v>
+        <v>0.07250709849804934</v>
       </c>
       <c r="E15">
-        <v>0.1693211497635971</v>
+        <v>0.06501327547516296</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>39479</v>
+        <v>38749</v>
       </c>
       <c r="B16">
-        <v>0.1417471389980756</v>
+        <v>0.05819599821758351</v>
       </c>
       <c r="C16">
-        <v>0.1678511846861687</v>
+        <v>0.05841088474828312</v>
       </c>
       <c r="D16">
-        <v>0.1113320637726795</v>
+        <v>0.0776978670472399</v>
       </c>
       <c r="E16">
-        <v>0.145891201557358</v>
+        <v>0.07113892486224821</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>39508</v>
+        <v>38777</v>
       </c>
       <c r="B17">
-        <v>0.1209238583866491</v>
+        <v>0.07970519160712056</v>
       </c>
       <c r="C17">
-        <v>0.1397343625349159</v>
+        <v>0.06542810485678459</v>
       </c>
       <c r="D17">
-        <v>0.1304401382796714</v>
+        <v>0.07806422113617359</v>
       </c>
       <c r="E17">
-        <v>0.1236656291559666</v>
+        <v>0.07608972889382094</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>39539</v>
+        <v>38808</v>
       </c>
       <c r="B18">
-        <v>0.07884951296125746</v>
+        <v>0.07902199410445733</v>
       </c>
       <c r="C18">
-        <v>0.1138401701153274</v>
+        <v>0.07230772797638711</v>
       </c>
       <c r="D18">
-        <v>0.1107067895661525</v>
+        <v>0.07411791896822044</v>
       </c>
       <c r="E18">
-        <v>0.1174929972061678</v>
+        <v>0.07662666905054463</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>39569</v>
+        <v>38838</v>
       </c>
       <c r="B19">
-        <v>0.11705721722698</v>
+        <v>0.07896467869670407</v>
       </c>
       <c r="C19">
-        <v>0.1056101961916288</v>
+        <v>0.0792306214694273</v>
       </c>
       <c r="D19">
-        <v>0.1521355756766262</v>
+        <v>0.07488056575536614</v>
       </c>
       <c r="E19">
-        <v>0.1310941678408167</v>
+        <v>0.07568756861992004</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>39600</v>
+        <v>38869</v>
       </c>
       <c r="B20">
-        <v>0.1559950437315704</v>
+        <v>0.07614406034254599</v>
       </c>
       <c r="C20">
-        <v>0.1173005913066026</v>
+        <v>0.07804357771456912</v>
       </c>
       <c r="D20">
-        <v>0.1442418282635551</v>
+        <v>0.08047416492899595</v>
       </c>
       <c r="E20">
-        <v>0.1356947311687779</v>
+        <v>0.07649088321752749</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>39630</v>
+        <v>38899</v>
       </c>
       <c r="B21">
-        <v>0.164670213825828</v>
+        <v>0.0763736295035805</v>
       </c>
       <c r="C21">
-        <v>0.1459074915947928</v>
+        <v>0.07716078951427684</v>
       </c>
       <c r="D21">
-        <v>0.1253617179115999</v>
+        <v>0.08978666666172211</v>
       </c>
       <c r="E21">
-        <v>0.1405797072839271</v>
+        <v>0.08171379911536138</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>39661</v>
+        <v>38930</v>
       </c>
       <c r="B22">
-        <v>0.1553733142619153</v>
+        <v>0.07610288170070674</v>
       </c>
       <c r="C22">
-        <v>0.1586795239397712</v>
+        <v>0.07620685718227772</v>
       </c>
       <c r="D22">
-        <v>0.09712292493380062</v>
+        <v>0.09456160014263199</v>
       </c>
       <c r="E22">
-        <v>0.1222421570363185</v>
+        <v>0.08827414391111665</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>39692</v>
+        <v>38961</v>
       </c>
       <c r="B23">
-        <v>0.06875343678479959</v>
+        <v>0.09648037714213663</v>
       </c>
       <c r="C23">
-        <v>0.1295989882908476</v>
+        <v>0.08298562944880793</v>
       </c>
       <c r="D23">
-        <v>0.05915043135523501</v>
+        <v>0.09484528260655554</v>
       </c>
       <c r="E23">
-        <v>0.09387835806687848</v>
+        <v>0.09306451647030319</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>39722</v>
+        <v>38991</v>
       </c>
       <c r="B24">
-        <v>0.092104022812296</v>
+        <v>0.09462735786483278</v>
       </c>
       <c r="C24">
-        <v>0.1054102579530036</v>
+        <v>0.08907020556922535</v>
       </c>
       <c r="D24">
-        <v>0.05996879410040707</v>
+        <v>0.08996480345169136</v>
       </c>
       <c r="E24">
-        <v>0.07208071679648088</v>
+        <v>0.09312389540029294</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>39753</v>
+        <v>39022</v>
       </c>
       <c r="B25">
-        <v>0.09490437101012751</v>
+        <v>0.09204202010756803</v>
       </c>
       <c r="C25">
-        <v>0.08525394353574105</v>
+        <v>0.09438325170484578</v>
       </c>
       <c r="D25">
-        <v>0.05454939187964629</v>
+        <v>0.09161431985491555</v>
       </c>
       <c r="E25">
-        <v>0.05788953911176276</v>
+        <v>0.09214146863772078</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>39783</v>
+        <v>39052</v>
       </c>
       <c r="B26">
-        <v>0.02606208738224457</v>
+        <v>0.09290245987250606</v>
       </c>
       <c r="C26">
-        <v>0.07102349373488938</v>
+        <v>0.09319061261496892</v>
       </c>
       <c r="D26">
-        <v>0.02991265410343709</v>
+        <v>0.1018572016862469</v>
       </c>
       <c r="E26">
-        <v>0.04814361336116346</v>
+        <v>0.09447877499761791</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>39814</v>
+        <v>39083</v>
       </c>
       <c r="B27">
-        <v>0.02321406932550929</v>
+        <v>0.09116920882085115</v>
       </c>
       <c r="C27">
-        <v>0.04806017590596048</v>
+        <v>0.09203789626697505</v>
       </c>
       <c r="D27">
-        <v>0.03610933303358104</v>
+        <v>0.1190590578636635</v>
       </c>
       <c r="E27">
-        <v>0.04019045967222146</v>
+        <v>0.1041768598016086</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>39845</v>
+        <v>39114</v>
       </c>
       <c r="B28">
-        <v>0.02897628824264963</v>
+        <v>0.08936284007111886</v>
       </c>
       <c r="C28">
-        <v>0.02608414831680118</v>
+        <v>0.09114483625482532</v>
       </c>
       <c r="D28">
-        <v>0.0412212088783977</v>
+        <v>0.1299980431540925</v>
       </c>
       <c r="E28">
-        <v>0.0357477320051386</v>
+        <v>0.1169714342346676</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>39873</v>
+        <v>39142</v>
       </c>
       <c r="B29">
-        <v>0.04985722662763976</v>
+        <v>0.1343994023547014</v>
       </c>
       <c r="C29">
-        <v>0.03401586139859959</v>
+        <v>0.1049771504155571</v>
       </c>
       <c r="D29">
-        <v>0.04195252570839107</v>
+        <v>0.1341267045340932</v>
       </c>
       <c r="E29">
-        <v>0.03976102254012325</v>
+        <v>0.1277279351839497</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>39904</v>
+        <v>39173</v>
       </c>
       <c r="B30">
-        <v>0.06097083480991389</v>
+        <v>0.1327667388261378</v>
       </c>
       <c r="C30">
-        <v>0.04660144989340111</v>
+        <v>0.1188429937506526</v>
       </c>
       <c r="D30">
-        <v>0.03451413338893525</v>
+        <v>0.132149991478538</v>
       </c>
       <c r="E30">
-        <v>0.03922928932524131</v>
+        <v>0.1320915797222412</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>39934</v>
+        <v>39203</v>
       </c>
       <c r="B31">
-        <v>0.03010392332634649</v>
+        <v>0.1291897442660791</v>
       </c>
       <c r="C31">
-        <v>0.04697732825463339</v>
+        <v>0.132118628482306</v>
       </c>
       <c r="D31">
-        <v>-0.001260513958179438</v>
+        <v>0.1317341577071465</v>
       </c>
       <c r="E31">
-        <v>0.02506871504638227</v>
+        <v>0.1326702845732592</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>39965</v>
+        <v>39234</v>
       </c>
       <c r="B32">
-        <v>-0.01814825811927404</v>
+        <v>0.1301019897577902</v>
       </c>
       <c r="C32">
-        <v>0.02430883333899546</v>
+        <v>0.130686157616669</v>
       </c>
       <c r="D32">
-        <v>-0.01198331166815227</v>
+        <v>0.1349459460903248</v>
       </c>
       <c r="E32">
-        <v>0.00709010258753449</v>
+        <v>0.1329433650920031</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>39995</v>
+        <v>39264</v>
       </c>
       <c r="B33">
-        <v>-0.0157294831825342</v>
+        <v>0.1266526783334952</v>
       </c>
       <c r="C33">
-        <v>-0.001257939325153903</v>
+        <v>0.1286481374524548</v>
       </c>
       <c r="D33">
-        <v>0.004897310183174241</v>
+        <v>0.1422303112405144</v>
       </c>
       <c r="E33">
-        <v>-0.002782171814385846</v>
+        <v>0.1363034716793286</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>40026</v>
+        <v>39295</v>
       </c>
       <c r="B34">
-        <v>-0.02554735866679687</v>
+        <v>0.1232494676508852</v>
       </c>
       <c r="C34">
-        <v>-0.01980836665620169</v>
+        <v>0.1266680452473902</v>
       </c>
       <c r="D34">
-        <v>0.001725006688162204</v>
+        <v>0.1532139572559957</v>
       </c>
       <c r="E34">
-        <v>-0.001786998265605299</v>
+        <v>0.1434634048622783</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>40057</v>
+        <v>39326</v>
       </c>
       <c r="B35">
-        <v>-0.002174792686048572</v>
+        <v>0.1577017396568093</v>
       </c>
       <c r="C35">
-        <v>-0.01448387817845987</v>
+        <v>0.1358679618803965</v>
       </c>
       <c r="D35">
-        <v>-0.002440733260391366</v>
+        <v>0.1676860798758031</v>
       </c>
       <c r="E35">
-        <v>0.001393861203648336</v>
+        <v>0.1543767827907711</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>40087</v>
+        <v>39356</v>
       </c>
       <c r="B36">
-        <v>-0.002568925418325537</v>
+        <v>0.155153069322532</v>
       </c>
       <c r="C36">
-        <v>-0.01009702559039031</v>
+        <v>0.1453680922100755</v>
       </c>
       <c r="D36">
-        <v>-0.003473326074553289</v>
+        <v>0.1855421755186026</v>
       </c>
       <c r="E36">
-        <v>-0.001396350882260841</v>
+        <v>0.1688140708834671</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>40118</v>
+        <v>39387</v>
       </c>
       <c r="B37">
-        <v>-0.01040108702216361</v>
+        <v>0.1528579206255211</v>
       </c>
       <c r="C37">
-        <v>-0.005048268375512557</v>
+        <v>0.1552375765349541</v>
       </c>
       <c r="D37">
-        <v>-0.005729239558059707</v>
+        <v>0.1866615373571204</v>
       </c>
       <c r="E37">
-        <v>-0.003881099631001478</v>
+        <v>0.1799632642505087</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>40148</v>
+        <v>39417</v>
       </c>
       <c r="B38">
-        <v>0.004539045857956493</v>
+        <v>0.1840211896071088</v>
       </c>
       <c r="C38">
-        <v>-0.002810322194177535</v>
+        <v>0.1640107265183873</v>
       </c>
       <c r="D38">
-        <v>0.01400060500639911</v>
+        <v>0.1690748994879334</v>
       </c>
       <c r="E38">
-        <v>0.00159934645792868</v>
+        <v>0.1804262041212188</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>40179</v>
+        <v>39448</v>
       </c>
       <c r="B39">
-        <v>0.01761794742492873</v>
+        <v>0.1812891624363301</v>
       </c>
       <c r="C39">
-        <v>0.003918635420240553</v>
+        <v>0.17272275755632</v>
       </c>
       <c r="D39">
-        <v>0.04926692217272546</v>
+        <v>0.1351414366309002</v>
       </c>
       <c r="E39">
-        <v>0.0191794292070216</v>
+        <v>0.163625957825318</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>40210</v>
+        <v>39479</v>
       </c>
       <c r="B40">
-        <v>0.01042537807037392</v>
+        <v>0.1789962041271442</v>
       </c>
       <c r="C40">
-        <v>0.01086079045108639</v>
+        <v>0.1814355187235276</v>
       </c>
       <c r="D40">
-        <v>0.05535800523640218</v>
+        <v>0.1177253933142826</v>
       </c>
       <c r="E40">
-        <v>0.03954184413850889</v>
+        <v>0.1406472431443721</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>40238</v>
+        <v>39508</v>
       </c>
       <c r="B41">
-        <v>0.03424549192809358</v>
+        <v>0.1093309492682376</v>
       </c>
       <c r="C41">
-        <v>0.02076293914113209</v>
+        <v>0.1565387719439039</v>
       </c>
       <c r="D41">
-        <v>0.03880894042094428</v>
+        <v>0.1181300575227167</v>
       </c>
       <c r="E41">
-        <v>0.04781128927669061</v>
+        <v>0.1236656291559665</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>40269</v>
+        <v>39539</v>
       </c>
       <c r="B42">
-        <v>0.03014334043012277</v>
+        <v>0.1073785835501081</v>
       </c>
       <c r="C42">
-        <v>0.02493807014286344</v>
+        <v>0.1319019123151632</v>
       </c>
       <c r="D42">
-        <v>0.04542123166082483</v>
+        <v>0.134388491202012</v>
       </c>
       <c r="E42">
-        <v>0.04652939243939041</v>
+        <v>0.1234146473463371</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>40299</v>
+        <v>39569</v>
       </c>
       <c r="B43">
-        <v>0.03640027292192127</v>
+        <v>0.1065040383469982</v>
       </c>
       <c r="C43">
-        <v>0.03359636842671256</v>
+        <v>0.1077378570551146</v>
       </c>
       <c r="D43">
-        <v>0.05281772540965209</v>
+        <v>0.1400065727054303</v>
       </c>
       <c r="E43">
-        <v>0.04568263249714039</v>
+        <v>0.1308417071433863</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>40330</v>
+        <v>39600</v>
       </c>
       <c r="B44">
-        <v>0.04184595338411712</v>
+        <v>0.1411660313498345</v>
       </c>
       <c r="C44">
-        <v>0.0361298555787204</v>
+        <v>0.1183495510823136</v>
       </c>
       <c r="D44">
-        <v>0.03555691731601218</v>
+        <v>0.1326891295988915</v>
       </c>
       <c r="E44">
-        <v>0.04459862479549635</v>
+        <v>0.1356947311687779</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>40360</v>
+        <v>39630</v>
       </c>
       <c r="B45">
-        <v>0.05927154477790372</v>
+        <v>0.140251440708298</v>
       </c>
       <c r="C45">
-        <v>0.04583925702798072</v>
+        <v>0.1293071701350435</v>
       </c>
       <c r="D45">
-        <v>0.03821062867457291</v>
+        <v>0.113433900880071</v>
       </c>
       <c r="E45">
-        <v>0.04219509046674571</v>
+        <v>0.128709867728131</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>40391</v>
+        <v>39661</v>
       </c>
       <c r="B46">
-        <v>0.03135550368816549</v>
+        <v>0.1388424729988364</v>
       </c>
       <c r="C46">
-        <v>0.04415766728339546</v>
+        <v>0.1400866483523229</v>
       </c>
       <c r="D46">
-        <v>0.01111544805390038</v>
+        <v>0.09361221040792331</v>
       </c>
       <c r="E46">
-        <v>0.02829433134816181</v>
+        <v>0.1132450802956286</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>40422</v>
+        <v>39692</v>
       </c>
       <c r="B47">
-        <v>0.0504102191181865</v>
+        <v>0.08292831539047973</v>
       </c>
       <c r="C47">
-        <v>0.04701242252808526</v>
+        <v>0.1206740763658713</v>
       </c>
       <c r="D47">
-        <v>0.06293181196946285</v>
+        <v>0.07458896291264153</v>
       </c>
       <c r="E47">
-        <v>0.03741929623264536</v>
+        <v>0.09387835806687862</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>40452</v>
+        <v>39722</v>
       </c>
       <c r="B48">
-        <v>0.0464256530665785</v>
+        <v>0.08216166691613563</v>
       </c>
       <c r="C48">
-        <v>0.04273045862431019</v>
+        <v>0.1013108184351505</v>
       </c>
       <c r="D48">
-        <v>0.0883216077295223</v>
+        <v>0.05632916213675308</v>
       </c>
       <c r="E48">
-        <v>0.05412295591762848</v>
+        <v>0.07484344515243935</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>40483</v>
+        <v>39753</v>
       </c>
       <c r="B49">
-        <v>0.03189424627793373</v>
+        <v>0.08118382123180995</v>
       </c>
       <c r="C49">
-        <v>0.04291003948756628</v>
+        <v>0.08209126784614171</v>
       </c>
       <c r="D49">
-        <v>0.08689691332470421</v>
+        <v>0.04562890932661185</v>
       </c>
       <c r="E49">
-        <v>0.07938344434122976</v>
+        <v>0.05884901145866886</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>40513</v>
+        <v>39783</v>
       </c>
       <c r="B50">
-        <v>0.1275639592919682</v>
+        <v>0.03930765030319208</v>
       </c>
       <c r="C50">
-        <v>0.06862795287882685</v>
+        <v>0.06755104615037916</v>
       </c>
       <c r="D50">
-        <v>0.1263934112934468</v>
+        <v>0.04247276862012534</v>
       </c>
       <c r="E50">
-        <v>0.1005373107825577</v>
+        <v>0.04814361336116346</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>40544</v>
+        <v>39814</v>
       </c>
       <c r="B51">
-        <v>0.104312686391059</v>
+        <v>0.03632948949917321</v>
       </c>
       <c r="C51">
-        <v>0.08792363065365368</v>
+        <v>0.05227365367805834</v>
       </c>
       <c r="D51">
-        <v>0.1003952691988753</v>
+        <v>0.04592373329014391</v>
       </c>
       <c r="E51">
-        <v>0.1045618646056754</v>
+        <v>0.0446751370789604</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>40575</v>
+        <v>39845</v>
       </c>
       <c r="B52">
-        <v>0.1007362289770959</v>
+        <v>0.0319317696492142</v>
       </c>
       <c r="C52">
-        <v>0.1108709582200411</v>
+        <v>0.03585630315052642</v>
       </c>
       <c r="D52">
-        <v>0.09594853004898826</v>
+        <v>0.04200787876178794</v>
       </c>
       <c r="E52">
-        <v>0.1075790701804368</v>
+        <v>0.04346812689068577</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>40603</v>
+        <v>39873</v>
       </c>
       <c r="B53">
-        <v>0.1150497187015539</v>
+        <v>0.03690498340026875</v>
       </c>
       <c r="C53">
-        <v>0.1066995446899029</v>
+        <v>0.03505541418288532</v>
       </c>
       <c r="D53">
-        <v>0.1157312984985981</v>
+        <v>0.03135145556843793</v>
       </c>
       <c r="E53">
-        <v>0.1040250325821539</v>
+        <v>0.03976102254012331</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>40634</v>
+        <v>39904</v>
       </c>
       <c r="B54">
-        <v>0.1021596190158027</v>
+        <v>0.03240990234192621</v>
       </c>
       <c r="C54">
-        <v>0.1059818555648175</v>
+        <v>0.03374888513046966</v>
       </c>
       <c r="D54">
-        <v>0.1044344043646045</v>
+        <v>0.01522596084856039</v>
       </c>
       <c r="E54">
-        <v>0.1053714109707303</v>
+        <v>0.02952843172626214</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>40664</v>
+        <v>39934</v>
       </c>
       <c r="B55">
-        <v>0.1076187567195928</v>
+        <v>0.02846080169472123</v>
       </c>
       <c r="C55">
-        <v>0.1082760314789831</v>
+        <v>0.03259189581230533</v>
       </c>
       <c r="D55">
-        <v>0.1128981647113568</v>
+        <v>0.005092507536978079</v>
       </c>
       <c r="E55">
-        <v>0.1110212891915198</v>
+        <v>0.01722330798465885</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>40695</v>
+        <v>39965</v>
       </c>
       <c r="B56">
-        <v>0.1307795021300768</v>
+        <v>-0.001555195931344932</v>
       </c>
       <c r="C56">
-        <v>0.1135192926218241</v>
+        <v>0.01977183603510077</v>
       </c>
       <c r="D56">
-        <v>0.1344088034534197</v>
+        <v>0.000951839377065019</v>
       </c>
       <c r="E56">
-        <v>0.1172471241764603</v>
+        <v>0.007090102587534547</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>40725</v>
+        <v>39995</v>
       </c>
       <c r="B57">
-        <v>0.115675554066515</v>
+        <v>-0.005829692790785141</v>
       </c>
       <c r="C57">
-        <v>0.1180246043053949</v>
+        <v>0.007025304324196985</v>
       </c>
       <c r="D57">
-        <v>0.1278268223341716</v>
+        <v>0.001939408798917512</v>
       </c>
       <c r="E57">
-        <v>0.1250445968329827</v>
+        <v>0.002661251904320256</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>40756</v>
+        <v>40026</v>
       </c>
       <c r="B58">
-        <v>0.1352092477619199</v>
+        <v>-0.008478391328808996</v>
       </c>
       <c r="C58">
-        <v>0.1272214346528373</v>
+        <v>-0.005287760016979756</v>
       </c>
       <c r="D58">
-        <v>0.1479488641692252</v>
+        <v>0.002261611138415687</v>
       </c>
       <c r="E58">
-        <v>0.1367281633189388</v>
+        <v>0.001717619771466125</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>40787</v>
+        <v>40057</v>
       </c>
       <c r="B59">
-        <v>0.1206815797532702</v>
+        <v>0.0008482232906087115</v>
       </c>
       <c r="C59">
-        <v>0.1238554605272351</v>
+        <v>-0.004486620276328541</v>
       </c>
       <c r="D59">
-        <v>0.1151674381885376</v>
+        <v>-1.943632638814064e-05</v>
       </c>
       <c r="E59">
-        <v>0.1303143748973114</v>
+        <v>0.001393861203648405</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>40817</v>
+        <v>40087</v>
       </c>
       <c r="B60">
-        <v>0.1238635626533457</v>
+        <v>-0.003297212558879399</v>
       </c>
       <c r="C60">
-        <v>0.1265847967228453</v>
+        <v>-0.003642460199026627</v>
       </c>
       <c r="D60">
-        <v>0.1054069203773503</v>
+        <v>-0.005458540763827366</v>
       </c>
       <c r="E60">
-        <v>0.1228410742450377</v>
+        <v>-0.001072121983933221</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>40848</v>
+        <v>40118</v>
       </c>
       <c r="B61">
-        <v>0.1319207337307259</v>
+        <v>-0.006857267914171752</v>
       </c>
       <c r="C61">
-        <v>0.125488625379114</v>
+        <v>-0.003102085727480879</v>
       </c>
       <c r="D61">
-        <v>0.110458843641462</v>
+        <v>-0.001997156412939193</v>
       </c>
       <c r="E61">
-        <v>0.1103444007357833</v>
+        <v>-0.002491711167718181</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>40878</v>
+        <v>40148</v>
       </c>
       <c r="B62">
-        <v>0.09528478348787073</v>
+        <v>0.001029008818890884</v>
       </c>
       <c r="C62">
-        <v>0.1170230266239808</v>
+        <v>-0.003041823884720154</v>
       </c>
       <c r="D62">
-        <v>0.1002595064485042</v>
+        <v>0.01225373655055258</v>
       </c>
       <c r="E62">
-        <v>0.1053750901557721</v>
+        <v>0.001599346457928725</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>40909</v>
+        <v>40179</v>
       </c>
       <c r="B63">
-        <v>0.09538277708054305</v>
+        <v>0.001453085617908775</v>
       </c>
       <c r="C63">
-        <v>0.1075294314330466</v>
+        <v>-0.001458391159124096</v>
       </c>
       <c r="D63">
-        <v>0.1120282474938172</v>
+        <v>0.03629895104979141</v>
       </c>
       <c r="E63">
-        <v>0.1075821991945944</v>
+        <v>0.01551851039580165</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>40940</v>
+        <v>40210</v>
       </c>
       <c r="B64">
-        <v>0.1046918721935336</v>
+        <v>0.002117558282814375</v>
       </c>
       <c r="C64">
-        <v>0.09845314425398248</v>
+        <v>0.001533217573204612</v>
       </c>
       <c r="D64">
-        <v>0.1263190725302003</v>
+        <v>0.05120099516663718</v>
       </c>
       <c r="E64">
-        <v>0.1128689421575072</v>
+        <v>0.03325122758899378</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>40969</v>
+        <v>40238</v>
       </c>
       <c r="B65">
-        <v>0.1151404369184189</v>
+        <v>0.0586562394027713</v>
       </c>
       <c r="C65">
-        <v>0.1050716953974985</v>
+        <v>0.02074229443449808</v>
       </c>
       <c r="D65">
-        <v>0.1143119963563904</v>
+        <v>0.05593392161364334</v>
       </c>
       <c r="E65">
-        <v>0.1175531054601359</v>
+        <v>0.0478112892766907</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>41000</v>
+        <v>40269</v>
       </c>
       <c r="B66">
-        <v>0.1127268785257932</v>
+        <v>0.06041702856218287</v>
       </c>
       <c r="C66">
-        <v>0.1108530625459153</v>
+        <v>0.04039694208258945</v>
       </c>
       <c r="D66">
-        <v>0.1099504550415547</v>
+        <v>0.05169623912095465</v>
       </c>
       <c r="E66">
-        <v>0.1168605079760484</v>
+        <v>0.05294371863374512</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>41030</v>
+        <v>40299</v>
       </c>
       <c r="B67">
-        <v>0.09067139144645869</v>
+        <v>0.06135796252104723</v>
       </c>
       <c r="C67">
-        <v>0.106179568963557</v>
+        <v>0.06014374349533374</v>
       </c>
       <c r="D67">
-        <v>0.08885230944690209</v>
+        <v>0.04506884197194609</v>
       </c>
       <c r="E67">
-        <v>0.1043715869482824</v>
+        <v>0.0508996675688481</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>41061</v>
+        <v>40330</v>
       </c>
       <c r="B68">
-        <v>0.100873132219321</v>
+        <v>0.04192786567016424</v>
       </c>
       <c r="C68">
-        <v>0.1014238007305243</v>
+        <v>0.05456761891779804</v>
       </c>
       <c r="D68">
-        <v>0.1038913648729566</v>
+        <v>0.03703079329358831</v>
       </c>
       <c r="E68">
-        <v>0.1008980431204711</v>
+        <v>0.04459862479549642</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>41091</v>
+        <v>40360</v>
       </c>
       <c r="B69">
-        <v>0.07380209676418759</v>
+        <v>0.04310875916703758</v>
       </c>
       <c r="C69">
-        <v>0.08844887347665575</v>
+        <v>0.04879819578608294</v>
       </c>
       <c r="D69">
-        <v>0.08389998039599482</v>
+        <v>0.02856512725937614</v>
       </c>
       <c r="E69">
-        <v>0.09221455157195112</v>
+        <v>0.03688825417497026</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>41122</v>
+        <v>40391</v>
       </c>
       <c r="B70">
-        <v>0.08121075782622983</v>
+        <v>0.04329484578778793</v>
       </c>
       <c r="C70">
-        <v>0.08529532893657947</v>
+        <v>0.04277715687499651</v>
       </c>
       <c r="D70">
-        <v>0.09479319406944156</v>
+        <v>0.03259278740706736</v>
       </c>
       <c r="E70">
-        <v>0.09419484644613095</v>
+        <v>0.03272956932001068</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>41153</v>
+        <v>40422</v>
       </c>
       <c r="B71">
-        <v>0.09883314303480079</v>
+        <v>0.03628232116150171</v>
       </c>
       <c r="C71">
-        <v>0.0846153325417394</v>
+        <v>0.04089530870544233</v>
       </c>
       <c r="D71">
-        <v>0.09907528114299677</v>
+        <v>0.05109997403149268</v>
       </c>
       <c r="E71">
-        <v>0.092589485202811</v>
+        <v>0.03741929623264548</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>41183</v>
+        <v>40452</v>
       </c>
       <c r="B72">
-        <v>0.09182895285309296</v>
+        <v>0.03843441617120023</v>
       </c>
       <c r="C72">
-        <v>0.09062428457137452</v>
+        <v>0.03933719437349656</v>
       </c>
       <c r="D72">
-        <v>0.09264582657348579</v>
+        <v>0.08444943265759024</v>
       </c>
       <c r="E72">
-        <v>0.09550476726197465</v>
+        <v>0.05604739803205017</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>41214</v>
+        <v>40483</v>
       </c>
       <c r="B73">
-        <v>0.08424734103192033</v>
+        <v>0.04046329486591946</v>
       </c>
       <c r="C73">
-        <v>0.09163647897327136</v>
+        <v>0.03839334406620707</v>
       </c>
       <c r="D73">
-        <v>0.08262743602084663</v>
+        <v>0.1055071595445849</v>
       </c>
       <c r="E73">
-        <v>0.0914495145791097</v>
+        <v>0.08035218874455603</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>41244</v>
+        <v>40513</v>
       </c>
       <c r="B74">
-        <v>0.07352057222186253</v>
+        <v>0.1149128699874791</v>
       </c>
       <c r="C74">
-        <v>0.0831989553689586</v>
+        <v>0.06460352700819955</v>
       </c>
       <c r="D74">
-        <v>0.06916171402795443</v>
+        <v>0.1116553401454984</v>
       </c>
       <c r="E74">
-        <v>0.08147832554076226</v>
+        <v>0.1005373107825579</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>41275</v>
+        <v>40544</v>
       </c>
       <c r="B75">
-        <v>0.07950836717164034</v>
+        <v>0.1141009749598316</v>
       </c>
       <c r="C75">
-        <v>0.07909209347514107</v>
+        <v>0.08982571327107668</v>
       </c>
       <c r="D75">
-        <v>0.06492924395421221</v>
+        <v>0.10410022022359</v>
       </c>
       <c r="E75">
-        <v>0.07223946466767106</v>
+        <v>0.1070875733045579</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>41306</v>
+        <v>40575</v>
       </c>
       <c r="B76">
-        <v>0.09278179234751317</v>
+        <v>0.1148483610480852</v>
       </c>
       <c r="C76">
-        <v>0.08193691058033868</v>
+        <v>0.1146207353317986</v>
       </c>
       <c r="D76">
-        <v>0.07156747989353952</v>
+        <v>0.1024229015529421</v>
       </c>
       <c r="E76">
-        <v>0.06855281262523535</v>
+        <v>0.1060594873073436</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>41334</v>
+        <v>40603</v>
       </c>
       <c r="B77">
-        <v>0.07407299169965784</v>
+        <v>0.1024395335845646</v>
       </c>
       <c r="C77">
-        <v>0.08212105040627043</v>
+        <v>0.1104629565308271</v>
       </c>
       <c r="D77">
-        <v>0.07113970469764225</v>
+        <v>0.1055519759699296</v>
       </c>
       <c r="E77">
-        <v>0.06921214284846464</v>
+        <v>0.104025032582154</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>41365</v>
+        <v>40634</v>
       </c>
       <c r="B78">
-        <v>0.08347831140249364</v>
+        <v>0.1005418482555227</v>
       </c>
       <c r="C78">
-        <v>0.08344436514988819</v>
+        <v>0.1059432476293908</v>
       </c>
       <c r="D78">
-        <v>0.07366115800278247</v>
+        <v>0.1104583537338301</v>
       </c>
       <c r="E78">
-        <v>0.07212278086465472</v>
+        <v>0.1061444104189007</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>41395</v>
+        <v>40664</v>
       </c>
       <c r="B79">
-        <v>0.08578537889071314</v>
+        <v>0.0991286287521408</v>
       </c>
       <c r="C79">
-        <v>0.08111222733095486</v>
+        <v>0.100703336864076</v>
       </c>
       <c r="D79">
-        <v>0.07397259715097033</v>
+        <v>0.1168735881374532</v>
       </c>
       <c r="E79">
-        <v>0.07292448661713168</v>
+        <v>0.1109613059470711</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>41426</v>
+        <v>40695</v>
       </c>
       <c r="B80">
-        <v>0.0692605493917304</v>
+        <v>0.1199095054132774</v>
       </c>
       <c r="C80">
-        <v>0.07950807989497903</v>
+        <v>0.1065266608069803</v>
       </c>
       <c r="D80">
-        <v>0.07126704640248843</v>
+        <v>0.1244094306580976</v>
       </c>
       <c r="E80">
-        <v>0.0729669338520804</v>
+        <v>0.1172471241764604</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>41456</v>
+        <v>40725</v>
       </c>
       <c r="B81">
-        <v>0.07488204787937541</v>
+        <v>0.119113928567724</v>
       </c>
       <c r="C81">
-        <v>0.07664265872060631</v>
+        <v>0.1127173542443807</v>
       </c>
       <c r="D81">
-        <v>0.08159534497552014</v>
+        <v>0.1328070229600773</v>
       </c>
       <c r="E81">
-        <v>0.07561166284299295</v>
+        <v>0.1246966805852095</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>41487</v>
+        <v>40756</v>
       </c>
       <c r="B82">
-        <v>0.07661887826745042</v>
+        <v>0.1179044821056022</v>
       </c>
       <c r="C82">
-        <v>0.07358715851285207</v>
+        <v>0.1189759720288678</v>
       </c>
       <c r="D82">
-        <v>0.0855264800496825</v>
+        <v>0.1330872850875048</v>
       </c>
       <c r="E82">
-        <v>0.07946295714256367</v>
+        <v>0.1301012462352267</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>41518</v>
+        <v>40787</v>
       </c>
       <c r="B83">
-        <v>0.07935583240818013</v>
+        <v>0.1318471199032086</v>
       </c>
       <c r="C83">
-        <v>0.07695225285166864</v>
+        <v>0.1229551768588449</v>
       </c>
       <c r="D83">
-        <v>0.07931985287101841</v>
+        <v>0.1250488166443522</v>
       </c>
       <c r="E83">
-        <v>0.08214722596540698</v>
+        <v>0.1303143748973115</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>41548</v>
+        <v>40817</v>
       </c>
       <c r="B84">
-        <v>0.06092520353055299</v>
+        <v>0.1300103378781076</v>
       </c>
       <c r="C84">
-        <v>0.07229997140206117</v>
+        <v>0.1265873132956394</v>
       </c>
       <c r="D84">
-        <v>0.0608014679829484</v>
+        <v>0.109135569384709</v>
       </c>
       <c r="E84">
-        <v>0.07521593363454974</v>
+        <v>0.1224238903721888</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>41579</v>
+        <v>40848</v>
       </c>
       <c r="B85">
-        <v>0.05665098494244611</v>
+        <v>0.1279889714087538</v>
       </c>
       <c r="C85">
-        <v>0.06564400696039306</v>
+        <v>0.1299488097300233</v>
       </c>
       <c r="D85">
-        <v>0.05783446803101693</v>
+        <v>0.1019976644507137</v>
       </c>
       <c r="E85">
-        <v>0.06598526296166123</v>
+        <v>0.1120606834932584</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>41609</v>
+        <v>40878</v>
       </c>
       <c r="B86">
-        <v>0.0462858349640576</v>
+        <v>0.09859808981950208</v>
       </c>
       <c r="C86">
-        <v>0.05462067447901889</v>
+        <v>0.1188657997021211</v>
       </c>
       <c r="D86">
-        <v>0.04845693637675477</v>
+        <v>0.1049920366318937</v>
       </c>
       <c r="E86">
-        <v>0.05569762413024001</v>
+        <v>0.1053750901557722</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>41640</v>
+        <v>40909</v>
       </c>
       <c r="B87">
-        <v>0.03858796970535661</v>
+        <v>0.09673000159214837</v>
       </c>
       <c r="C87">
-        <v>0.04717492987062011</v>
+        <v>0.1077723542734681</v>
       </c>
       <c r="D87">
-        <v>0.04584481554692063</v>
+        <v>0.1164846172231267</v>
       </c>
       <c r="E87">
-        <v>0.05071207331823074</v>
+        <v>0.1078247727685781</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>41671</v>
+        <v>40940</v>
       </c>
       <c r="B88">
-        <v>0.02939783790941425</v>
+        <v>0.09363244656870368</v>
       </c>
       <c r="C88">
-        <v>0.03809054752627616</v>
+        <v>0.09632017932678467</v>
       </c>
       <c r="D88">
-        <v>0.0419104980749762</v>
+        <v>0.1200527926993483</v>
       </c>
       <c r="E88">
-        <v>0.04540408333288384</v>
+        <v>0.1138431488514563</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>41699</v>
+        <v>40969</v>
       </c>
       <c r="B89">
-        <v>0.04059953318331687</v>
+        <v>0.1196254322971966</v>
       </c>
       <c r="C89">
-        <v>0.03619511359936257</v>
+        <v>0.1033292934860162</v>
       </c>
       <c r="D89">
-        <v>0.04520511299863245</v>
+        <v>0.1161219064579329</v>
       </c>
       <c r="E89">
-        <v>0.04432014220684306</v>
+        <v>0.117553105460136</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>41730</v>
+        <v>41000</v>
       </c>
       <c r="B90">
-        <v>0.01378787216681479</v>
+        <v>0.1177580146948959</v>
       </c>
       <c r="C90">
-        <v>0.02792841441984863</v>
+        <v>0.110338631186932</v>
       </c>
       <c r="D90">
-        <v>0.02919022790841932</v>
+        <v>0.1068802518424095</v>
       </c>
       <c r="E90">
-        <v>0.03876861299400929</v>
+        <v>0.1143516503332304</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>41760</v>
+        <v>41030</v>
       </c>
       <c r="B91">
-        <v>0.0375821608362463</v>
+        <v>0.1152298231015537</v>
       </c>
       <c r="C91">
-        <v>0.03065652206212598</v>
+        <v>0.117537756697882</v>
       </c>
       <c r="D91">
-        <v>0.06078979535317837</v>
+        <v>0.09988566642097299</v>
       </c>
       <c r="E91">
-        <v>0.04506171208674335</v>
+        <v>0.1076292749071052</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>41791</v>
+        <v>41061</v>
       </c>
       <c r="B92">
-        <v>0.04802260885852971</v>
+        <v>0.0951137330068431</v>
       </c>
       <c r="C92">
-        <v>0.03313088062053026</v>
+        <v>0.1093671902677642</v>
       </c>
       <c r="D92">
-        <v>0.05240257123754396</v>
+        <v>0.09592821109803086</v>
       </c>
       <c r="E92">
-        <v>0.04746086483304719</v>
+        <v>0.1008980431204712</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>41821</v>
+        <v>41091</v>
       </c>
       <c r="B93">
-        <v>0.04679009158402346</v>
+        <v>0.09208670827560109</v>
       </c>
       <c r="C93">
-        <v>0.04413162042626648</v>
+        <v>0.1008100881279993</v>
       </c>
       <c r="D93">
-        <v>0.06144511700653097</v>
+        <v>0.09458184292768711</v>
       </c>
       <c r="E93">
-        <v>0.05821249453241773</v>
+        <v>0.09679857348223042</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>41852</v>
+        <v>41122</v>
       </c>
       <c r="B94">
-        <v>0.02617364174020672</v>
+        <v>0.08993309539984985</v>
       </c>
       <c r="C94">
-        <v>0.04032878072758663</v>
+        <v>0.09237784556076463</v>
       </c>
       <c r="D94">
-        <v>0.04536342892772302</v>
+        <v>0.09295286964370018</v>
       </c>
       <c r="E94">
-        <v>0.05307037239059929</v>
+        <v>0.0944876412231395</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>41883</v>
+        <v>41153</v>
       </c>
       <c r="B95">
-        <v>0.04653545642624755</v>
+        <v>0.0911236373805465</v>
       </c>
       <c r="C95">
-        <v>0.03983306325015924</v>
+        <v>0.09104781368533243</v>
       </c>
       <c r="D95">
-        <v>0.04604562207727536</v>
+        <v>0.09023374303704593</v>
       </c>
       <c r="E95">
-        <v>0.05095138933717642</v>
+        <v>0.09258948520281118</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>41913</v>
+        <v>41183</v>
       </c>
       <c r="B96">
-        <v>0.06869643142345072</v>
+        <v>0.08897576869236702</v>
       </c>
       <c r="C96">
-        <v>0.04713517652996833</v>
+        <v>0.09001083382425441</v>
       </c>
       <c r="D96">
-        <v>0.06705777917562988</v>
+        <v>0.0861244405610255</v>
       </c>
       <c r="E96">
-        <v>0.05282227672687606</v>
+        <v>0.08977035108059066</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>41944</v>
+        <v>41214</v>
       </c>
       <c r="B97">
-        <v>0.0623327908082528</v>
+        <v>0.0870664414424069</v>
       </c>
       <c r="C97">
-        <v>0.05918822621931702</v>
+        <v>0.08905528250510676</v>
       </c>
       <c r="D97">
-        <v>0.06006793219331816</v>
+        <v>0.08173191905098225</v>
       </c>
       <c r="E97">
-        <v>0.05772377781540777</v>
+        <v>0.08603003421635134</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>41974</v>
+        <v>41244</v>
       </c>
       <c r="B98">
-        <v>0.05627159766323955</v>
+        <v>0.07819881083843123</v>
       </c>
       <c r="C98">
-        <v>0.06243360663164769</v>
+        <v>0.08474700699106834</v>
       </c>
       <c r="D98">
-        <v>0.05613448097335293</v>
+        <v>0.07657861701027908</v>
       </c>
       <c r="E98">
-        <v>0.06108673078076696</v>
+        <v>0.08147832554076238</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>42005</v>
+        <v>41275</v>
       </c>
       <c r="B99">
-        <v>0.06705611771166248</v>
+        <v>0.07644593203052272</v>
       </c>
       <c r="C99">
-        <v>0.06188683539438494</v>
+        <v>0.08057039477045358</v>
       </c>
       <c r="D99">
-        <v>0.0665923899346039</v>
+        <v>0.07145972262196368</v>
       </c>
       <c r="E99">
-        <v>0.0609316010337583</v>
+        <v>0.07659008622774179</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>42036</v>
+        <v>41306</v>
       </c>
       <c r="B100">
-        <v>0.05543698308278858</v>
+        <v>0.07478222076690627</v>
       </c>
       <c r="C100">
-        <v>0.0595882328192302</v>
+        <v>0.07647565454528671</v>
       </c>
       <c r="D100">
-        <v>0.05681571605406366</v>
+        <v>0.06840468905967959</v>
       </c>
       <c r="E100">
-        <v>0.05984752898734014</v>
+        <v>0.07214767623064089</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>42064</v>
+        <v>41334</v>
       </c>
       <c r="B101">
-        <v>0.05370708792755743</v>
+        <v>0.06647239172125902</v>
       </c>
       <c r="C101">
-        <v>0.0587333962406695</v>
+        <v>0.07256684817289598</v>
       </c>
       <c r="D101">
-        <v>0.05692098596847716</v>
+        <v>0.06777201686375076</v>
       </c>
       <c r="E101">
-        <v>0.06010969731904822</v>
+        <v>0.06921214284846479</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>42095</v>
+        <v>41365</v>
       </c>
       <c r="B102">
-        <v>0.06180064770243877</v>
+        <v>0.06492293912313202</v>
       </c>
       <c r="C102">
-        <v>0.05698157290426159</v>
+        <v>0.06872585053709908</v>
       </c>
       <c r="D102">
-        <v>0.07255603151505793</v>
+        <v>0.06915753580435291</v>
       </c>
       <c r="E102">
-        <v>0.06209757784586623</v>
+        <v>0.06844474724259454</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>42125</v>
+        <v>41395</v>
       </c>
       <c r="B103">
-        <v>0.03706123110969523</v>
+        <v>0.06337537485852712</v>
       </c>
       <c r="C103">
-        <v>0.05085632224656381</v>
+        <v>0.06492356856763935</v>
       </c>
       <c r="D103">
-        <v>0.05037283796421149</v>
+        <v>0.07231147857331342</v>
       </c>
       <c r="E103">
-        <v>0.05994995181591551</v>
+        <v>0.06974701041380581</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>42156</v>
+        <v>41426</v>
       </c>
       <c r="B104">
-        <v>0.05244978533574238</v>
+        <v>0.07361381924523819</v>
       </c>
       <c r="C104">
-        <v>0.05043722138262546</v>
+        <v>0.06730404440896574</v>
       </c>
       <c r="D104">
-        <v>0.05084721230719032</v>
+        <v>0.07743178717857493</v>
       </c>
       <c r="E104">
-        <v>0.05792536059548656</v>
+        <v>0.07296693385208054</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>42186</v>
+        <v>41456</v>
       </c>
       <c r="B105">
-        <v>0.05942873666893347</v>
+        <v>0.07257780959609272</v>
       </c>
       <c r="C105">
-        <v>0.04964658437145703</v>
+        <v>0.06985566789995264</v>
       </c>
       <c r="D105">
-        <v>0.05406462820967983</v>
+        <v>0.08421511341800166</v>
       </c>
       <c r="E105">
-        <v>0.05176155949369387</v>
+        <v>0.07798612638996345</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>42217</v>
+        <v>41487</v>
       </c>
       <c r="B106">
-        <v>0.06610751891165173</v>
+        <v>0.07127427488661769</v>
       </c>
       <c r="C106">
-        <v>0.05932868030544253</v>
+        <v>0.07248863457598283</v>
       </c>
       <c r="D106">
-        <v>0.05989446820660536</v>
+        <v>0.08447125158945276</v>
       </c>
       <c r="E106">
-        <v>0.05493543624115849</v>
+        <v>0.0820393840620099</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>42248</v>
+        <v>41518</v>
       </c>
       <c r="B107">
-        <v>0.0540390916212514</v>
+        <v>0.0831341849616581</v>
       </c>
       <c r="C107">
-        <v>0.05985844906727886</v>
+        <v>0.07566208981478946</v>
       </c>
       <c r="D107">
-        <v>0.05552434210625803</v>
+        <v>0.0777553128887666</v>
       </c>
       <c r="E107">
-        <v>0.05649447950751438</v>
+        <v>0.08214722596540712</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>42278</v>
+        <v>41548</v>
       </c>
       <c r="B108">
-        <v>0.04497743236562214</v>
+        <v>0.0815062626645487</v>
       </c>
       <c r="C108">
-        <v>0.05504134763284175</v>
+        <v>0.07863824083760812</v>
       </c>
       <c r="D108">
-        <v>0.04994467514938251</v>
+        <v>0.06470769112985097</v>
       </c>
       <c r="E108">
-        <v>0.05512116182074861</v>
+        <v>0.07564475186935692</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>42309</v>
+        <v>41579</v>
       </c>
       <c r="B109">
-        <v>0.04822930629229905</v>
+        <v>0.07956832050606683</v>
       </c>
       <c r="C109">
-        <v>0.04908194342639086</v>
+        <v>0.08140292271075783</v>
       </c>
       <c r="D109">
-        <v>0.05565470695096351</v>
+        <v>0.05441363752230558</v>
       </c>
       <c r="E109">
-        <v>0.05370790806886799</v>
+        <v>0.06562554718030786</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>42339</v>
+        <v>41609</v>
       </c>
       <c r="B110">
-        <v>0.05495387666045704</v>
+        <v>0.04874916193584674</v>
       </c>
       <c r="C110">
-        <v>0.04938687177279274</v>
+        <v>0.06994124836882071</v>
       </c>
       <c r="D110">
-        <v>0.0562713325415016</v>
+        <v>0.04797154373856351</v>
       </c>
       <c r="E110">
-        <v>0.05395690488061585</v>
+        <v>0.05569762413024017</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>42370</v>
+        <v>41640</v>
       </c>
       <c r="B111">
-        <v>0.05428150024809747</v>
+        <v>0.04742142414418138</v>
       </c>
       <c r="C111">
-        <v>0.05248822773361785</v>
+        <v>0.05857963552869827</v>
       </c>
       <c r="D111">
-        <v>0.05868904598308004</v>
+        <v>0.04507678347838985</v>
       </c>
       <c r="E111">
-        <v>0.05687169515851503</v>
+        <v>0.04915398824641979</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>42401</v>
+        <v>41671</v>
       </c>
       <c r="B112">
-        <v>0.03727461337595391</v>
+        <v>0.04612650427488832</v>
       </c>
       <c r="C112">
-        <v>0.04883666342816947</v>
+        <v>0.04743236345163877</v>
       </c>
       <c r="D112">
-        <v>0.04327198934437387</v>
+        <v>0.04385437634365404</v>
       </c>
       <c r="E112">
-        <v>0.05274412262298515</v>
+        <v>0.04563423452020261</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>42430</v>
+        <v>41699</v>
       </c>
       <c r="B113">
-        <v>0.04607960384088591</v>
+        <v>0.0424035359278663</v>
       </c>
       <c r="C113">
-        <v>0.04587857248831242</v>
+        <v>0.04531715478231196</v>
       </c>
       <c r="D113">
-        <v>0.04629624026357639</v>
+        <v>0.04402926679848543</v>
       </c>
       <c r="E113">
-        <v>0.04941909186367674</v>
+        <v>0.04432014220684324</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>42461</v>
+        <v>41730</v>
       </c>
       <c r="B114">
-        <v>0.04941299806703672</v>
+        <v>0.04096091271636101</v>
       </c>
       <c r="C114">
-        <v>0.04425573842795884</v>
+        <v>0.0431636509730385</v>
       </c>
       <c r="D114">
-        <v>0.05013641527740507</v>
+        <v>0.04605397528148847</v>
       </c>
       <c r="E114">
-        <v>0.04656821496178507</v>
+        <v>0.04464587280787611</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>42491</v>
+        <v>41760</v>
       </c>
       <c r="B115">
-        <v>0.05259993267936075</v>
+        <v>0.03984204475190314</v>
       </c>
       <c r="C115">
-        <v>0.04936417819576113</v>
+        <v>0.04106883113204344</v>
       </c>
       <c r="D115">
-        <v>0.05412223153296698</v>
+        <v>0.04770177764547913</v>
       </c>
       <c r="E115">
-        <v>0.05018496235798277</v>
+        <v>0.04592833990848447</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>42522</v>
+        <v>41791</v>
       </c>
       <c r="B116">
-        <v>0.05644001975730419</v>
+        <v>0.04805803430248935</v>
       </c>
       <c r="C116">
-        <v>0.05281765016790055</v>
+        <v>0.04295366392358446</v>
       </c>
       <c r="D116">
-        <v>0.05734194811591704</v>
+        <v>0.04862684157217412</v>
       </c>
       <c r="E116">
-        <v>0.05386686497542966</v>
+        <v>0.04746086483304737</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>42552</v>
+        <v>41821</v>
       </c>
       <c r="B117">
-        <v>0.03863745201409529</v>
+        <v>0.04679797395690341</v>
       </c>
       <c r="C117">
-        <v>0.04922580148358674</v>
+        <v>0.04489935100376525</v>
       </c>
       <c r="D117">
-        <v>0.04164720496483258</v>
+        <v>0.04871175283326043</v>
       </c>
       <c r="E117">
-        <v>0.05103712820457216</v>
+        <v>0.04834679068363803</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>42583</v>
+        <v>41852</v>
       </c>
       <c r="B118">
-        <v>0.03309339800306643</v>
+        <v>0.04547969205422882</v>
       </c>
       <c r="C118">
-        <v>0.0427236232581553</v>
+        <v>0.04677856677120715</v>
       </c>
       <c r="D118">
-        <v>0.04025964353427594</v>
+        <v>0.05037325292340882</v>
       </c>
       <c r="E118">
-        <v>0.04641626553834181</v>
+        <v>0.04923728244294793</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>42614</v>
+        <v>41883</v>
       </c>
       <c r="B119">
-        <v>0.04528791003899649</v>
+        <v>0.05084215437427843</v>
       </c>
       <c r="C119">
-        <v>0.03900625335205273</v>
+        <v>0.04770660679513685</v>
       </c>
       <c r="D119">
-        <v>0.05038150258357212</v>
+        <v>0.0537691622548601</v>
       </c>
       <c r="E119">
-        <v>0.04409611702756017</v>
+        <v>0.0509513893371766</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>42644</v>
+        <v>41913</v>
       </c>
       <c r="B120">
-        <v>0.02957934265462132</v>
+        <v>0.04964119832558263</v>
       </c>
       <c r="C120">
-        <v>0.03598688356556141</v>
+        <v>0.04865434825136325</v>
       </c>
       <c r="D120">
-        <v>0.0466135745392634</v>
+        <v>0.05876931816283952</v>
       </c>
       <c r="E120">
-        <v>0.04575157355237044</v>
+        <v>0.05430391111370297</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>42675</v>
+        <v>41944</v>
       </c>
       <c r="B121">
-        <v>0.0282792671161575</v>
+        <v>0.0483540085339809</v>
       </c>
       <c r="C121">
-        <v>0.0343821732699251</v>
+        <v>0.04961245374461395</v>
       </c>
       <c r="D121">
-        <v>0.05401638924375364</v>
+        <v>0.06182905857981198</v>
       </c>
       <c r="E121">
-        <v>0.05033715545552966</v>
+        <v>0.05812251299917068</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>42705</v>
+        <v>41974</v>
       </c>
       <c r="B122">
-        <v>0.05701663278165817</v>
+        <v>0.06250778044324405</v>
       </c>
       <c r="C122">
-        <v>0.03829174751747899</v>
+        <v>0.0535009957676025</v>
       </c>
       <c r="D122">
-        <v>0.06197442884127796</v>
+        <v>0.06266181559964952</v>
       </c>
       <c r="E122">
-        <v>0.05420146420809827</v>
+        <v>0.06108673078076715</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>42736</v>
+        <v>42005</v>
       </c>
       <c r="B123">
-        <v>0.04699663315718416</v>
+        <v>0.06063816911771279</v>
       </c>
       <c r="C123">
-        <v>0.04409751101833328</v>
+        <v>0.05716665269831256</v>
       </c>
       <c r="D123">
-        <v>0.06358202611749816</v>
+        <v>0.0611378060069138</v>
       </c>
       <c r="E123">
-        <v>0.05985761473417653</v>
+        <v>0.06187622672879192</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>42767</v>
+        <v>42036</v>
       </c>
       <c r="B124">
-        <v>0.05143518777401757</v>
+        <v>0.05900781020973522</v>
       </c>
       <c r="C124">
-        <v>0.05181615123761996</v>
+        <v>0.06071791992356401</v>
       </c>
       <c r="D124">
-        <v>0.07436560684069017</v>
+        <v>0.06003020616179819</v>
       </c>
       <c r="E124">
-        <v>0.06664068726648871</v>
+        <v>0.06127660925612066</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>42795</v>
+        <v>42064</v>
       </c>
       <c r="B125">
-        <v>0.0542821253598087</v>
+        <v>0.05875335707614034</v>
       </c>
       <c r="C125">
-        <v>0.05090464876367014</v>
+        <v>0.05946644546786276</v>
       </c>
       <c r="D125">
-        <v>0.05568124628609625</v>
+        <v>0.05916107978843277</v>
       </c>
       <c r="E125">
-        <v>0.06454295974809482</v>
+        <v>0.0601096973190484</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>42826</v>
+        <v>42095</v>
       </c>
       <c r="B126">
-        <v>0.06592814832848096</v>
+        <v>0.0572608173820711</v>
       </c>
       <c r="C126">
-        <v>0.05721515382076908</v>
+        <v>0.0583406615559822</v>
       </c>
       <c r="D126">
-        <v>0.07059868910841205</v>
+        <v>0.05854976314430323</v>
       </c>
       <c r="E126">
-        <v>0.06688184741173278</v>
+        <v>0.05924701636484487</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>42856</v>
+        <v>42125</v>
       </c>
       <c r="B127">
-        <v>0.03307671235600404</v>
+        <v>0.05571917987503674</v>
       </c>
       <c r="C127">
-        <v>0.05109566201476456</v>
+        <v>0.05724445144441604</v>
       </c>
       <c r="D127">
-        <v>0.04353445859860874</v>
+        <v>0.05787960401116443</v>
       </c>
       <c r="E127">
-        <v>0.05660479799770565</v>
+        <v>0.05853014898130029</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>42887</v>
+        <v>42156</v>
       </c>
       <c r="B128">
-        <v>0.04386399105390674</v>
+        <v>0.05696304727251546</v>
       </c>
       <c r="C128">
-        <v>0.04762295057946391</v>
+        <v>0.05664768150987443</v>
       </c>
       <c r="D128">
-        <v>0.05070070034981437</v>
+        <v>0.05734671463099211</v>
       </c>
       <c r="E128">
-        <v>0.05494461601894502</v>
+        <v>0.05792536059548673</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>42917</v>
+        <v>42186</v>
       </c>
       <c r="B129">
-        <v>0.03603670112700918</v>
+        <v>0.05562064580435806</v>
       </c>
       <c r="C129">
-        <v>0.03765913484563999</v>
+        <v>0.05610095765063674</v>
       </c>
       <c r="D129">
-        <v>0.05890700315926102</v>
+        <v>0.05685203480738091</v>
       </c>
       <c r="E129">
-        <v>0.05104738736922802</v>
+        <v>0.05735945114984595</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>42948</v>
+        <v>42217</v>
       </c>
       <c r="B130">
-        <v>0.02566772118005755</v>
+        <v>0.05418673188197349</v>
       </c>
       <c r="C130">
-        <v>0.03518947112032449</v>
+        <v>0.05559014165294898</v>
       </c>
       <c r="D130">
-        <v>0.05754805241369672</v>
+        <v>0.05652035271535125</v>
       </c>
       <c r="E130">
-        <v>0.05571858530759067</v>
+        <v>0.05690636738457489</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>42979</v>
+        <v>42248</v>
       </c>
       <c r="B131">
-        <v>0.0516847663530387</v>
+        <v>0.05536987412503243</v>
       </c>
       <c r="C131">
-        <v>0.03779639622003515</v>
+        <v>0.05505908393712131</v>
       </c>
       <c r="D131">
-        <v>0.05403375547445964</v>
+        <v>0.05611105099981105</v>
       </c>
       <c r="E131">
-        <v>0.05682960368247242</v>
+        <v>0.05649447950751454</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>43009</v>
+        <v>42278</v>
       </c>
       <c r="B132">
-        <v>0.04739352426686821</v>
+        <v>0.05329758411774463</v>
       </c>
       <c r="C132">
-        <v>0.04158200393332149</v>
+        <v>0.0542847300415835</v>
       </c>
       <c r="D132">
-        <v>0.05525264111876183</v>
+        <v>0.05557352047782283</v>
       </c>
       <c r="E132">
-        <v>0.05561148300230603</v>
+        <v>0.05606830806432851</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>43040</v>
+        <v>42309</v>
       </c>
       <c r="B133">
-        <v>0.04116859798457274</v>
+        <v>0.05144380241037379</v>
       </c>
       <c r="C133">
-        <v>0.04674896286815988</v>
+        <v>0.05337042021771693</v>
       </c>
       <c r="D133">
-        <v>0.05163004000698368</v>
+        <v>0.05427893233209136</v>
       </c>
       <c r="E133">
-        <v>0.05363881220006835</v>
+        <v>0.05532116793657521</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>43070</v>
+        <v>42339</v>
       </c>
       <c r="B134">
-        <v>0.04412368175326914</v>
+        <v>0.05270897454137135</v>
       </c>
       <c r="C134">
-        <v>0.04422860133490336</v>
+        <v>0.05248345368982991</v>
       </c>
       <c r="D134">
-        <v>0.04413550939574493</v>
+        <v>0.05201826183193349</v>
       </c>
       <c r="E134">
-        <v>0.05033939684049678</v>
+        <v>0.05395690488061602</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>43101</v>
+        <v>42370</v>
       </c>
       <c r="B135">
-        <v>0.03568114580681602</v>
+        <v>0.05142434773373267</v>
       </c>
       <c r="C135">
-        <v>0.04032447518155263</v>
+        <v>0.05185904156182592</v>
       </c>
       <c r="D135">
-        <v>0.03571774654400008</v>
+        <v>0.04940261442703606</v>
       </c>
       <c r="E135">
-        <v>0.04382776531557619</v>
+        <v>0.05189993619702043</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>43132</v>
+        <v>42401</v>
       </c>
       <c r="B136">
-        <v>0.04810179761050634</v>
+        <v>0.0494848044447068</v>
       </c>
       <c r="C136">
-        <v>0.04263554172353049</v>
+        <v>0.05120604223993693</v>
       </c>
       <c r="D136">
-        <v>0.04934382328441632</v>
+        <v>0.04845644750819252</v>
       </c>
       <c r="E136">
-        <v>0.04306569307472041</v>
+        <v>0.04995910792238748</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>43160</v>
+        <v>42430</v>
       </c>
       <c r="B137">
-        <v>0.03843906653823129</v>
+        <v>0.04769895209478202</v>
       </c>
       <c r="C137">
-        <v>0.04074066998518455</v>
+        <v>0.04953603475774049</v>
       </c>
       <c r="D137">
-        <v>0.04036095705727128</v>
+        <v>0.05039821365580176</v>
       </c>
       <c r="E137">
-        <v>0.04180750896189586</v>
+        <v>0.04941909186367691</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>43191</v>
+        <v>42461</v>
       </c>
       <c r="B138">
-        <v>0.00877252358663856</v>
+        <v>0.04599653765617367</v>
       </c>
       <c r="C138">
-        <v>0.03177112924512538</v>
+        <v>0.04772676473188749</v>
       </c>
       <c r="D138">
-        <v>0.01520105546210746</v>
+        <v>0.05430159204160983</v>
       </c>
       <c r="E138">
-        <v>0.03496861193459832</v>
+        <v>0.05105208440186818</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>43221</v>
+        <v>42491</v>
       </c>
       <c r="B139">
-        <v>0.03780801330418435</v>
+        <v>0.04459311794475206</v>
       </c>
       <c r="C139">
-        <v>0.02833986780968472</v>
+        <v>0.04609620256523592</v>
       </c>
       <c r="D139">
-        <v>0.04701664788335114</v>
+        <v>0.05518518491139999</v>
       </c>
       <c r="E139">
-        <v>0.03419288680090993</v>
+        <v>0.053294996869604</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>43252</v>
+        <v>42522</v>
       </c>
       <c r="B140">
-        <v>0.03504462061570464</v>
+        <v>0.05430351022596814</v>
       </c>
       <c r="C140">
-        <v>0.02720838583550916</v>
+        <v>0.04829772194229796</v>
       </c>
       <c r="D140">
-        <v>0.03610350915091264</v>
+        <v>0.05211381797327927</v>
       </c>
       <c r="E140">
-        <v>0.03277373749879039</v>
+        <v>0.05386686497542984</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>43282</v>
+        <v>42552</v>
       </c>
       <c r="B141">
-        <v>0.02353586334972826</v>
+        <v>0.0524943516203636</v>
       </c>
       <c r="C141">
-        <v>0.0321294990898724</v>
+        <v>0.05046365993036126</v>
       </c>
       <c r="D141">
-        <v>0.02707310458394352</v>
+        <v>0.04579667247691517</v>
       </c>
       <c r="E141">
-        <v>0.03673108720606907</v>
+        <v>0.05103189178719828</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>43313</v>
+        <v>42583</v>
       </c>
       <c r="B142">
-        <v>0.03273430386259038</v>
+        <v>0.05067397098506865</v>
       </c>
       <c r="C142">
-        <v>0.03043826260934108</v>
+        <v>0.05249061094380012</v>
       </c>
       <c r="D142">
-        <v>0.03966313494339135</v>
+        <v>0.04272440753350321</v>
       </c>
       <c r="E142">
-        <v>0.03427991622608247</v>
+        <v>0.04687829932789936</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>43344</v>
+        <v>42614</v>
       </c>
       <c r="B143">
-        <v>0.03438250100456257</v>
+        <v>0.04116318083606452</v>
       </c>
       <c r="C143">
-        <v>0.03021755607229372</v>
+        <v>0.04811050114716559</v>
       </c>
       <c r="D143">
-        <v>0.03796369236114248</v>
+        <v>0.04376727107226232</v>
       </c>
       <c r="E143">
-        <v>0.03489997729615908</v>
+        <v>0.04409611702756038</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>43374</v>
+        <v>42644</v>
       </c>
       <c r="B144">
-        <v>0.02374239578751696</v>
+        <v>0.04066248296538021</v>
       </c>
       <c r="C144">
-        <v>0.03028640021822328</v>
+        <v>0.04416654492883779</v>
       </c>
       <c r="D144">
-        <v>0.03572479716729753</v>
+        <v>0.04889998400952085</v>
       </c>
       <c r="E144">
-        <v>0.03778387482394375</v>
+        <v>0.04513055420509562</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>43405</v>
+        <v>42675</v>
       </c>
       <c r="B145">
-        <v>0.0273682758877566</v>
+        <v>0.04036160716728502</v>
       </c>
       <c r="C145">
-        <v>0.02849772422661202</v>
+        <v>0.04072909032290992</v>
       </c>
       <c r="D145">
-        <v>0.0430568909516415</v>
+        <v>0.05424321266630382</v>
       </c>
       <c r="E145">
-        <v>0.0389151268266938</v>
+        <v>0.04897015591602916</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>43435</v>
+        <v>42705</v>
       </c>
       <c r="B146">
-        <v>0.04627474328774088</v>
+        <v>0.05691990859240847</v>
       </c>
       <c r="C146">
-        <v>0.03246180498767146</v>
+        <v>0.0459813329083579</v>
       </c>
       <c r="D146">
-        <v>0.04587175135731868</v>
+        <v>0.05946119594847039</v>
       </c>
       <c r="E146">
-        <v>0.04155114649208586</v>
+        <v>0.05420146420809852</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>43466</v>
+        <v>42736</v>
       </c>
       <c r="B147">
-        <v>0.03392911537742908</v>
+        <v>0.05641151347021098</v>
       </c>
       <c r="C147">
-        <v>0.03585737818430883</v>
+        <v>0.05123100974330149</v>
       </c>
       <c r="D147">
-        <v>0.03257835564465378</v>
+        <v>0.06418596201267229</v>
       </c>
       <c r="E147">
-        <v>0.04050233265120461</v>
+        <v>0.059296790209149</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>43497</v>
+        <v>42767</v>
       </c>
       <c r="B148">
-        <v>0.0229060598746919</v>
+        <v>0.05668772265729372</v>
       </c>
       <c r="C148">
-        <v>0.0343699728466206</v>
+        <v>0.05667304823997105</v>
       </c>
       <c r="D148">
-        <v>0.02209262604385406</v>
+        <v>0.06593543556620797</v>
       </c>
       <c r="E148">
-        <v>0.0335142443486088</v>
+        <v>0.06319419784245038</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>43525</v>
+        <v>42795</v>
       </c>
       <c r="B149">
-        <v>0.03984540639001194</v>
+        <v>0.06649332323520665</v>
       </c>
       <c r="C149">
-        <v>0.03222686054737762</v>
+        <v>0.05986418645423711</v>
       </c>
       <c r="D149">
-        <v>0.04142907776904646</v>
+        <v>0.06350748166540435</v>
       </c>
       <c r="E149">
-        <v>0.03203335315251806</v>
+        <v>0.06454295974809504</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>43556</v>
+        <v>42826</v>
       </c>
       <c r="B150">
-        <v>0.02332837319433275</v>
+        <v>0.06668355644447777</v>
       </c>
       <c r="C150">
-        <v>0.02869327981967884</v>
+        <v>0.06328820077899271</v>
       </c>
       <c r="D150">
-        <v>0.02862289841301779</v>
+        <v>0.05745361952914828</v>
       </c>
       <c r="E150">
-        <v>0.0307148674086394</v>
+        <v>0.06229884558692037</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>43586</v>
+        <v>42856</v>
       </c>
       <c r="B151">
-        <v>0.0301874264714292</v>
+        <v>0.0662210832958275</v>
       </c>
       <c r="C151">
-        <v>0.03112040201859127</v>
+        <v>0.06646598765850398</v>
       </c>
       <c r="D151">
-        <v>0.03885513507251156</v>
+        <v>0.05380303104103613</v>
       </c>
       <c r="E151">
-        <v>0.0363023704181919</v>
+        <v>0.05825471074519643</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>43617</v>
+        <v>42887</v>
       </c>
       <c r="B152">
-        <v>0.02221906286365942</v>
+        <v>0.05204515843431429</v>
       </c>
       <c r="C152">
-        <v>0.02524495417647376</v>
+        <v>0.06164993272487319</v>
       </c>
       <c r="D152">
-        <v>0.02483615399938268</v>
+        <v>0.05357719748665077</v>
       </c>
       <c r="E152">
-        <v>0.03077139582830397</v>
+        <v>0.05494461601894524</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>43647</v>
+        <v>42917</v>
       </c>
       <c r="B153">
-        <v>0.03133762070526626</v>
+        <v>0.05168070001211311</v>
       </c>
       <c r="C153">
-        <v>0.02791470334678493</v>
+        <v>0.05664898058075164</v>
       </c>
       <c r="D153">
-        <v>0.040083826772095</v>
+        <v>0.05639188084248766</v>
       </c>
       <c r="E153">
-        <v>0.03459170528132971</v>
+        <v>0.0545907031233917</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>43678</v>
+        <v>42948</v>
       </c>
       <c r="B154">
-        <v>0.01388696439008774</v>
+        <v>0.05155185641228263</v>
       </c>
       <c r="C154">
-        <v>0.02248121598633778</v>
+        <v>0.05175923828623669</v>
       </c>
       <c r="D154">
-        <v>0.02950950973812952</v>
+        <v>0.05752175354020723</v>
       </c>
       <c r="E154">
-        <v>0.03147649683653569</v>
+        <v>0.05583027728978207</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>43709</v>
+        <v>42979</v>
       </c>
       <c r="B155">
-        <v>0.02481126466904733</v>
+        <v>0.05787542038534397</v>
       </c>
       <c r="C155">
-        <v>0.02334528325480041</v>
+        <v>0.05370265893657991</v>
       </c>
       <c r="D155">
-        <v>0.03123470939065801</v>
+        <v>0.0565751766647225</v>
       </c>
       <c r="E155">
-        <v>0.03360934863362747</v>
+        <v>0.05682960368247265</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>43739</v>
+        <v>43009</v>
       </c>
       <c r="B156">
-        <v>0.02301008262525946</v>
+        <v>0.05745106632859345</v>
       </c>
       <c r="C156">
-        <v>0.02056943722813149</v>
+        <v>0.05562611437540669</v>
       </c>
       <c r="D156">
-        <v>0.04450133587240039</v>
+        <v>0.05337035828191854</v>
       </c>
       <c r="E156">
-        <v>0.0350818516670626</v>
+        <v>0.05582242949561627</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>43770</v>
+        <v>43040</v>
       </c>
       <c r="B157">
-        <v>0.0123758126824224</v>
+        <v>0.05659508942866619</v>
       </c>
       <c r="C157">
-        <v>0.02006571999224304</v>
+        <v>0.05730719204753455</v>
       </c>
       <c r="D157">
-        <v>0.04096321437960251</v>
+        <v>0.05018982341162684</v>
       </c>
       <c r="E157">
-        <v>0.03889975321422026</v>
+        <v>0.05337845278608947</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B158">
+        <v>0.04806238746635447</v>
+      </c>
+      <c r="C158">
+        <v>0.05403618107453805</v>
+      </c>
+      <c r="D158">
+        <v>0.04745800882794504</v>
+      </c>
+      <c r="E158">
+        <v>0.05033939684049699</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B159">
+        <v>0.04709580906085427</v>
+      </c>
+      <c r="C159">
+        <v>0.05058442865195833</v>
+      </c>
+      <c r="D159">
+        <v>0.04515517906455067</v>
+      </c>
+      <c r="E159">
+        <v>0.04760100376804103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B160">
+        <v>0.04566123559512685</v>
+      </c>
+      <c r="C160">
+        <v>0.04693981070744521</v>
+      </c>
+      <c r="D160">
+        <v>0.04197112317524341</v>
+      </c>
+      <c r="E160">
+        <v>0.04486143702257989</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B161">
+        <v>0.03948276441546113</v>
+      </c>
+      <c r="C161">
+        <v>0.04407993635714742</v>
+      </c>
+      <c r="D161">
+        <v>0.03829622464589359</v>
+      </c>
+      <c r="E161">
+        <v>0.04180750896189608</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B162">
+        <v>0.03811369396456669</v>
+      </c>
+      <c r="C162">
+        <v>0.04108589799171822</v>
+      </c>
+      <c r="D162">
+        <v>0.03444168149694426</v>
+      </c>
+      <c r="E162">
+        <v>0.03823634310602727</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>43221</v>
+      </c>
+      <c r="B163">
+        <v>0.03728641115803336</v>
+      </c>
+      <c r="C163">
+        <v>0.03829428984602039</v>
+      </c>
+      <c r="D163">
+        <v>0.03228430462996232</v>
+      </c>
+      <c r="E163">
+        <v>0.03500740359093358</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B164">
+        <v>0.03106662174597737</v>
+      </c>
+      <c r="C164">
+        <v>0.03548890895619248</v>
+      </c>
+      <c r="D164">
+        <v>0.03159522636946468</v>
+      </c>
+      <c r="E164">
+        <v>0.03277373749879061</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>43282</v>
+      </c>
+      <c r="B165">
+        <v>0.03068831133633033</v>
+      </c>
+      <c r="C165">
+        <v>0.03301378141344703</v>
+      </c>
+      <c r="D165">
+        <v>0.03244704194090504</v>
+      </c>
+      <c r="E165">
+        <v>0.03210885764677754</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B166">
+        <v>0.03034417214904955</v>
+      </c>
+      <c r="C166">
+        <v>0.03069970174378575</v>
+      </c>
+      <c r="D166">
+        <v>0.03457015324580667</v>
+      </c>
+      <c r="E166">
+        <v>0.03287080718539232</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>43344</v>
+      </c>
+      <c r="B167">
+        <v>0.03537650081864091</v>
+      </c>
+      <c r="C167">
+        <v>0.03213632810134026</v>
+      </c>
+      <c r="D167">
+        <v>0.03768273670176563</v>
+      </c>
+      <c r="E167">
+        <v>0.0348999772961593</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B168">
+        <v>0.03444125622561205</v>
+      </c>
+      <c r="C168">
+        <v>0.03338730973110084</v>
+      </c>
+      <c r="D168">
+        <v>0.0415296494882002</v>
+      </c>
+      <c r="E168">
+        <v>0.03792751314525768</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B169">
+        <v>0.03370804840675118</v>
+      </c>
+      <c r="C169">
+        <v>0.03450860181700138</v>
+      </c>
+      <c r="D169">
+        <v>0.04263745548915084</v>
+      </c>
+      <c r="E169">
+        <v>0.04061661389303908</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>43435</v>
+      </c>
+      <c r="B170">
+        <v>0.04251354171919233</v>
+      </c>
+      <c r="C170">
+        <v>0.03688761545051852</v>
+      </c>
+      <c r="D170">
+        <v>0.04048633449890673</v>
+      </c>
+      <c r="E170">
+        <v>0.04155114649208611</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>43466</v>
+      </c>
+      <c r="B171">
+        <v>0.04140739418946389</v>
+      </c>
+      <c r="C171">
+        <v>0.03920966143846914</v>
+      </c>
+      <c r="D171">
+        <v>0.03512281018250739</v>
+      </c>
+      <c r="E171">
+        <v>0.0394155333901885</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B172">
+        <v>0.04007476117289757</v>
+      </c>
+      <c r="C172">
+        <v>0.04133189902718461</v>
+      </c>
+      <c r="D172">
+        <v>0.03135078294615599</v>
+      </c>
+      <c r="E172">
+        <v>0.03565330920919022</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B173">
+        <v>0.02895557535585606</v>
+      </c>
+      <c r="C173">
+        <v>0.03681257690607252</v>
+      </c>
+      <c r="D173">
+        <v>0.02962646632889093</v>
+      </c>
+      <c r="E173">
+        <v>0.03203335315251828</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B174">
+        <v>0.02792061078018039</v>
+      </c>
+      <c r="C174">
+        <v>0.03231698243631135</v>
+      </c>
+      <c r="D174">
+        <v>0.03005943092980461</v>
+      </c>
+      <c r="E174">
+        <v>0.03034556006828402</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B175">
+        <v>0.02686435763083414</v>
+      </c>
+      <c r="C175">
+        <v>0.02791351458895687</v>
+      </c>
+      <c r="D175">
+        <v>0.03071052000107</v>
+      </c>
+      <c r="E175">
+        <v>0.03013213908658869</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B176">
+        <v>0.03054133681031493</v>
+      </c>
+      <c r="C176">
+        <v>0.02844210174044316</v>
+      </c>
+      <c r="D176">
+        <v>0.03154423655403746</v>
+      </c>
+      <c r="E176">
+        <v>0.0307713958283042</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B177">
+        <v>0.02905548397572218</v>
+      </c>
+      <c r="C177">
+        <v>0.02882039280562376</v>
+      </c>
+      <c r="D177">
+        <v>0.03225648587679417</v>
+      </c>
+      <c r="E177">
+        <v>0.03150374747730072</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B178">
+        <v>0.02766973574404528</v>
+      </c>
+      <c r="C178">
+        <v>0.02908885217669414</v>
+      </c>
+      <c r="D178">
+        <v>0.03347989675958719</v>
+      </c>
+      <c r="E178">
+        <v>0.03242687306347312</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>43709</v>
+      </c>
+      <c r="B179">
+        <v>0.03351983458942082</v>
+      </c>
+      <c r="C179">
+        <v>0.03008168476972943</v>
+      </c>
+      <c r="D179">
+        <v>0.03509166326450118</v>
+      </c>
+      <c r="E179">
+        <v>0.0336093486336277</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B180">
+        <v>0.03218792010986112</v>
+      </c>
+      <c r="C180">
+        <v>0.03112583014777575</v>
+      </c>
+      <c r="D180">
+        <v>0.03708582553841047</v>
+      </c>
+      <c r="E180">
+        <v>0.03521912852083314</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B181">
+        <v>0.03073165312188166</v>
+      </c>
+      <c r="C181">
+        <v>0.03214646927372121</v>
+      </c>
+      <c r="D181">
+        <v>0.03790324820834434</v>
+      </c>
+      <c r="E181">
+        <v>0.03669357900375219</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
         <v>43800</v>
       </c>
-      <c r="B158">
-        <v>0.02741521796089231</v>
-      </c>
-      <c r="C158">
-        <v>0.02093370442285803</v>
-      </c>
-      <c r="D158">
-        <v>0.02741521796089231</v>
-      </c>
-      <c r="E158">
-        <v>0.03762658940429836</v>
+      <c r="B182">
+        <v>0.03789069446614047</v>
+      </c>
+      <c r="C182">
+        <v>0.0336034225659611</v>
+      </c>
+      <c r="D182">
+        <v>0.03789069446614047</v>
+      </c>
+      <c r="E182">
+        <v>0.03762658940429862</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/baseInterpolacion.xlsx
+++ b/resultados/baseInterpolacion.xlsx
@@ -1,31 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eo\Documents\999_Repositorios\PIBNowcast\resultados\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865590C6-858E-475E-91ED-4A93F9E2823A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Interpol" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -44,11 +28,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,19 +98,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -168,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,27 +176,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,24 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,17 +385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -466,7 +403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>38322</v>
       </c>
@@ -474,257 +411,257 @@
         <v>0.1529057483274712</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>38353</v>
       </c>
       <c r="B3">
-        <v>7.5588677373584448E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07558867737358445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>38384</v>
       </c>
       <c r="B4">
-        <v>7.6123635513994675E-2</v>
+        <v>0.07612363551399468</v>
       </c>
       <c r="C4">
         <v>0.1015393537383501</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>38412</v>
       </c>
       <c r="B5">
-        <v>7.8550966905330755E-2</v>
+        <v>0.07855096690533075</v>
       </c>
       <c r="C5">
-        <v>7.6754426597636635E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07675442659763664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>38443</v>
       </c>
       <c r="B6">
-        <v>7.7848345205889347E-2</v>
+        <v>0.07784834520588935</v>
       </c>
       <c r="C6">
-        <v>7.750764920840493E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07750764920840493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>38473</v>
       </c>
       <c r="B7">
-        <v>7.7243886218523766E-2</v>
+        <v>0.07724388621852377</v>
       </c>
       <c r="C7">
-        <v>7.7881066109914646E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07788106610991465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>38504</v>
       </c>
       <c r="B8">
-        <v>7.6879506257381575E-2</v>
+        <v>0.07687950625738157</v>
       </c>
       <c r="C8">
-        <v>7.7323912560598243E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07732391256059824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>38534</v>
       </c>
       <c r="B9">
-        <v>7.6801443901069424E-2</v>
+        <v>0.07680144390106942</v>
       </c>
       <c r="C9">
-        <v>7.6974945458991598E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0769749454589916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>38565</v>
       </c>
       <c r="B10">
-        <v>7.4235315315489603E-2</v>
+        <v>0.0742353153154896</v>
       </c>
       <c r="C10">
-        <v>7.5972088491313552E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07597208849131355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>38596</v>
       </c>
       <c r="B11">
-        <v>6.8604304811266864E-2</v>
+        <v>0.06860430481126686</v>
       </c>
       <c r="C11">
-        <v>7.3213688009275316E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07321368800927532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>38626</v>
       </c>
       <c r="B12">
-        <v>6.1149595589188518E-2</v>
+        <v>0.06114959558918852</v>
       </c>
       <c r="C12">
-        <v>6.7996405238648347E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06799640523864835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>38657</v>
       </c>
       <c r="B13">
-        <v>5.9320918885984168E-2</v>
+        <v>0.05932091888598417</v>
       </c>
       <c r="C13">
-        <v>6.3024939762146528E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06302493976214653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>38687</v>
       </c>
       <c r="B14">
-        <v>6.3211809041455375E-2</v>
+        <v>0.06321180904145537</v>
       </c>
       <c r="C14">
-        <v>6.1227441172209358E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06122744117220936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>38718</v>
       </c>
       <c r="B15">
-        <v>7.2507098498049344E-2</v>
+        <v>0.07250709849804934</v>
       </c>
       <c r="C15">
-        <v>6.501327547516296E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06501327547516296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>38749</v>
       </c>
       <c r="B16">
-        <v>7.7697867047239896E-2</v>
+        <v>0.0776978670472399</v>
       </c>
       <c r="C16">
-        <v>7.113892486224821E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07113892486224821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>38777</v>
       </c>
       <c r="B17">
-        <v>7.8064221136173589E-2</v>
+        <v>0.07806422113617359</v>
       </c>
       <c r="C17">
-        <v>7.6089728893820943E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07608972889382094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>38808</v>
       </c>
       <c r="B18">
-        <v>7.4117918968220439E-2</v>
+        <v>0.07411791896822044</v>
       </c>
       <c r="C18">
-        <v>7.6626669050544632E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07662666905054463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>38838</v>
       </c>
       <c r="B19">
-        <v>7.4880565755366141E-2</v>
+        <v>0.07488056575536614</v>
       </c>
       <c r="C19">
-        <v>7.5687568619920043E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07568756861992004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>38869</v>
       </c>
       <c r="B20">
-        <v>8.047416492899595E-2</v>
+        <v>0.08047416492899595</v>
       </c>
       <c r="C20">
-        <v>7.6490883217527492E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07649088321752749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>38899</v>
       </c>
       <c r="B21">
-        <v>8.9786666661722109E-2</v>
+        <v>0.08978666666172211</v>
       </c>
       <c r="C21">
-        <v>8.1713799115361377E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.08171379911536138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>38930</v>
       </c>
       <c r="B22">
-        <v>9.4561600142631985E-2</v>
+        <v>0.09456160014263199</v>
       </c>
       <c r="C22">
-        <v>8.8274143911116654E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.08827414391111665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>38961</v>
       </c>
       <c r="B23">
-        <v>9.4845282606555545E-2</v>
+        <v>0.09484528260655554</v>
       </c>
       <c r="C23">
-        <v>9.3064516470303185E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09306451647030319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>38991</v>
       </c>
       <c r="B24">
-        <v>8.9964803451691361E-2</v>
+        <v>0.08996480345169136</v>
       </c>
       <c r="C24">
-        <v>9.3123895400292936E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09312389540029294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>39022</v>
       </c>
       <c r="B25">
-        <v>9.1614319854915555E-2</v>
+        <v>0.09161431985491555</v>
       </c>
       <c r="C25">
-        <v>9.2141468637720783E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09214146863772078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>39052</v>
       </c>
@@ -732,10 +669,10 @@
         <v>0.1018572016862469</v>
       </c>
       <c r="C26">
-        <v>9.4478774997617906E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09447877499761791</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>39083</v>
       </c>
@@ -746,7 +683,7 @@
         <v>0.1041768598016086</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>39114</v>
       </c>
@@ -757,7 +694,7 @@
         <v>0.1169714342346676</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>39142</v>
       </c>
@@ -768,18 +705,18 @@
         <v>0.1277279351839497</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>39173</v>
       </c>
       <c r="B30">
-        <v>0.13214999147853801</v>
+        <v>0.132149991478538</v>
       </c>
       <c r="C30">
         <v>0.1320915797222412</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>39203</v>
       </c>
@@ -787,87 +724,87 @@
         <v>0.1317341577071465</v>
       </c>
       <c r="C31">
-        <v>0.13267028457325919</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1326702845732592</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>39234</v>
       </c>
       <c r="B32">
-        <v>0.13494594609032479</v>
+        <v>0.1349459460903248</v>
       </c>
       <c r="C32">
-        <v>0.13294336509200311</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1329433650920031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>39264</v>
       </c>
       <c r="B33">
-        <v>0.14223031124051441</v>
+        <v>0.1422303112405144</v>
       </c>
       <c r="C33">
         <v>0.1363034716793286</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>39295</v>
       </c>
       <c r="B34">
-        <v>0.15321395725599571</v>
+        <v>0.1532139572559957</v>
       </c>
       <c r="C34">
-        <v>0.14346340486227829</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1434634048622783</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>39326</v>
       </c>
       <c r="B35">
-        <v>0.16768607987580311</v>
+        <v>0.1676860798758031</v>
       </c>
       <c r="C35">
-        <v>0.15437678279077111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1543767827907711</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>39356</v>
       </c>
       <c r="B36">
-        <v>0.18554217551860261</v>
+        <v>0.1855421755186026</v>
       </c>
       <c r="C36">
-        <v>0.16881407088346709</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1688140708834671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>39387</v>
       </c>
       <c r="B37">
-        <v>0.18666153735712041</v>
+        <v>0.1866615373571204</v>
       </c>
       <c r="C37">
-        <v>0.17996326425050871</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1799632642505087</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>39417</v>
       </c>
       <c r="B38">
-        <v>0.16907489948793339</v>
+        <v>0.1690748994879334</v>
       </c>
       <c r="C38">
-        <v>0.18042620412121879</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1804262041212188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>39448</v>
       </c>
@@ -878,7 +815,7 @@
         <v>0.163625957825318</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>39479</v>
       </c>
@@ -889,7 +826,7 @@
         <v>0.1406472431443721</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>39508</v>
       </c>
@@ -900,359 +837,359 @@
         <v>0.1236656291559665</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>39539</v>
       </c>
       <c r="B42">
-        <v>0.13438849120201199</v>
+        <v>0.134388491202012</v>
       </c>
       <c r="C42">
         <v>0.1234146473463371</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>39569</v>
       </c>
       <c r="B43">
-        <v>0.14000657270543029</v>
+        <v>0.1400065727054303</v>
       </c>
       <c r="C43">
         <v>0.1308417071433863</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>39600</v>
       </c>
       <c r="B44">
-        <v>0.13268912959889151</v>
+        <v>0.1326891295988915</v>
       </c>
       <c r="C44">
-        <v>0.13569473116877789</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1356947311687779</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>39630</v>
       </c>
       <c r="B45">
-        <v>0.11343390088007101</v>
+        <v>0.113433900880071</v>
       </c>
       <c r="C45">
-        <v>0.12870986772813101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.128709867728131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>39661</v>
       </c>
       <c r="B46">
-        <v>9.3612210407923307E-2</v>
+        <v>0.09361221040792331</v>
       </c>
       <c r="C46">
         <v>0.1132450802956286</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>39692</v>
       </c>
       <c r="B47">
-        <v>7.4588962912641527E-2</v>
+        <v>0.07458896291264153</v>
       </c>
       <c r="C47">
-        <v>9.3878358066878623E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09387835806687862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>39722</v>
       </c>
       <c r="B48">
-        <v>5.6329162136753083E-2</v>
+        <v>0.05632916213675308</v>
       </c>
       <c r="C48">
-        <v>7.4843445152439347E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07484344515243935</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>39753</v>
       </c>
       <c r="B49">
-        <v>4.5628909326611851E-2</v>
+        <v>0.04562890932661185</v>
       </c>
       <c r="C49">
-        <v>5.884901145866886E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05884901145866886</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>39783</v>
       </c>
       <c r="B50">
-        <v>4.2472768620125341E-2</v>
+        <v>0.04247276862012534</v>
       </c>
       <c r="C50">
-        <v>4.8143613361163462E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04814361336116346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>39814</v>
       </c>
       <c r="B51">
-        <v>4.592373329014391E-2</v>
+        <v>0.04592373329014391</v>
       </c>
       <c r="C51">
-        <v>4.4675137078960397E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0446751370789604</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>39845</v>
       </c>
       <c r="B52">
-        <v>4.2007878761787937E-2</v>
+        <v>0.04200787876178794</v>
       </c>
       <c r="C52">
-        <v>4.3468126890685771E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04346812689068577</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>39873</v>
       </c>
       <c r="B53">
-        <v>3.1351455568437929E-2</v>
+        <v>0.03135145556843793</v>
       </c>
       <c r="C53">
-        <v>3.9761022540123307E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03976102254012331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>39904</v>
       </c>
       <c r="B54">
-        <v>1.5225960848560391E-2</v>
+        <v>0.01522596084856039</v>
       </c>
       <c r="C54">
-        <v>2.9528431726262142E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.02952843172626214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>39934</v>
       </c>
       <c r="B55">
-        <v>5.0925075369780788E-3</v>
+        <v>0.005092507536978079</v>
       </c>
       <c r="C55">
-        <v>1.7223307984658851E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01722330798465885</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>39965</v>
       </c>
       <c r="B56">
-        <v>9.5183937706501897E-4</v>
+        <v>0.000951839377065019</v>
       </c>
       <c r="C56">
-        <v>7.0901025875345471E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.007090102587534547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>39995</v>
       </c>
       <c r="B57">
-        <v>1.9394087989175119E-3</v>
+        <v>0.001939408798917512</v>
       </c>
       <c r="C57">
-        <v>2.6612519043202562E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.002661251904320256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>40026</v>
       </c>
       <c r="B58">
-        <v>2.2616111384156871E-3</v>
+        <v>0.002261611138415687</v>
       </c>
       <c r="C58">
-        <v>1.717619771466125E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001717619771466125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>40057</v>
       </c>
       <c r="B59">
-        <v>-1.9436326388140641E-5</v>
+        <v>-1.943632638814064e-05</v>
       </c>
       <c r="C59">
-        <v>1.3938612036484049E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001393861203648405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>40087</v>
       </c>
       <c r="B60">
-        <v>-5.4585407638273664E-3</v>
+        <v>-0.005458540763827366</v>
       </c>
       <c r="C60">
-        <v>-1.072121983933221E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.001072121983933221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>40118</v>
       </c>
       <c r="B61">
-        <v>-1.9971564129391932E-3</v>
+        <v>-0.001997156412939193</v>
       </c>
       <c r="C61">
-        <v>-2.4917111677181811E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.002491711167718181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>40148</v>
       </c>
       <c r="B62">
-        <v>1.225373655055258E-2</v>
+        <v>0.01225373655055258</v>
       </c>
       <c r="C62">
-        <v>1.5993464579287251E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001599346457928725</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>40179</v>
       </c>
       <c r="B63">
-        <v>3.629895104979141E-2</v>
+        <v>0.03629895104979141</v>
       </c>
       <c r="C63">
-        <v>1.5518510395801649E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01551851039580165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="2">
         <v>40210</v>
       </c>
       <c r="B64">
-        <v>5.1200995166637182E-2</v>
+        <v>0.05120099516663718</v>
       </c>
       <c r="C64">
-        <v>3.3251227588993779E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03325122758899378</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="2">
         <v>40238</v>
       </c>
       <c r="B65">
-        <v>5.5933921613643342E-2</v>
+        <v>0.05593392161364334</v>
       </c>
       <c r="C65">
-        <v>4.7811289276690698E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0478112892766907</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="2">
         <v>40269</v>
       </c>
       <c r="B66">
-        <v>5.1696239120954647E-2</v>
+        <v>0.05169623912095465</v>
       </c>
       <c r="C66">
-        <v>5.294371863374512E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05294371863374512</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="2">
         <v>40299</v>
       </c>
       <c r="B67">
-        <v>4.5068841971946091E-2</v>
+        <v>0.04506884197194609</v>
       </c>
       <c r="C67">
-        <v>5.0899667568848103E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0508996675688481</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>40330</v>
       </c>
       <c r="B68">
-        <v>3.7030793293588313E-2</v>
+        <v>0.03703079329358831</v>
       </c>
       <c r="C68">
-        <v>4.4598624795496422E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04459862479549642</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>40360</v>
       </c>
       <c r="B69">
-        <v>2.8565127259376141E-2</v>
+        <v>0.02856512725937614</v>
       </c>
       <c r="C69">
-        <v>3.6888254174970263E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03688825417497026</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
         <v>40391</v>
       </c>
       <c r="B70">
-        <v>3.2592787407067357E-2</v>
+        <v>0.03259278740706736</v>
       </c>
       <c r="C70">
-        <v>3.2729569320010678E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03272956932001068</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="2">
         <v>40422</v>
       </c>
       <c r="B71">
-        <v>5.1099974031492683E-2</v>
+        <v>0.05109997403149268</v>
       </c>
       <c r="C71">
-        <v>3.7419296232645477E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03741929623264548</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
         <v>40452</v>
       </c>
       <c r="B72">
-        <v>8.4449432657590237E-2</v>
+        <v>0.08444943265759024</v>
       </c>
       <c r="C72">
-        <v>5.6047398032050173E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05604739803205017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
         <v>40483</v>
       </c>
       <c r="B73">
-        <v>0.10550715954458489</v>
+        <v>0.1055071595445849</v>
       </c>
       <c r="C73">
-        <v>8.0352188744556033E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.08035218874455603</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="2">
         <v>40513</v>
       </c>
@@ -1263,7 +1200,7 @@
         <v>0.1005373107825579</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="2">
         <v>40544</v>
       </c>
@@ -1274,18 +1211,18 @@
         <v>0.1070875733045579</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" s="2">
         <v>40575</v>
       </c>
       <c r="B76">
-        <v>0.10242290155294211</v>
+        <v>0.1024229015529421</v>
       </c>
       <c r="C76">
         <v>0.1060594873073436</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" s="2">
         <v>40603</v>
       </c>
@@ -1296,7 +1233,7 @@
         <v>0.104025032582154</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="2">
         <v>40634</v>
       </c>
@@ -1307,7 +1244,7 @@
         <v>0.1061444104189007</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" s="2">
         <v>40664</v>
       </c>
@@ -1318,51 +1255,51 @@
         <v>0.1109613059470711</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" s="2">
         <v>40695</v>
       </c>
       <c r="B80">
-        <v>0.12440943065809761</v>
+        <v>0.1244094306580976</v>
       </c>
       <c r="C80">
         <v>0.1172471241764604</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81" s="2">
         <v>40725</v>
       </c>
       <c r="B81">
-        <v>0.13280702296007729</v>
+        <v>0.1328070229600773</v>
       </c>
       <c r="C81">
         <v>0.1246966805852095</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" s="2">
         <v>40756</v>
       </c>
       <c r="B82">
-        <v>0.13308728508750481</v>
+        <v>0.1330872850875048</v>
       </c>
       <c r="C82">
         <v>0.1301012462352267</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" s="2">
         <v>40787</v>
       </c>
       <c r="B83">
-        <v>0.12504881664435219</v>
+        <v>0.1250488166443522</v>
       </c>
       <c r="C83">
-        <v>0.13031437489731151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1303143748973115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="2">
         <v>40817</v>
       </c>
@@ -1373,7 +1310,7 @@
         <v>0.1224238903721888</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" s="2">
         <v>40848</v>
       </c>
@@ -1384,7 +1321,7 @@
         <v>0.1120606834932584</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" s="2">
         <v>40878</v>
       </c>
@@ -1392,10 +1329,10 @@
         <v>0.1049920366318937</v>
       </c>
       <c r="C86">
-        <v>0.10537509015577221</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1053750901557722</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="2">
         <v>40909</v>
       </c>
@@ -1406,18 +1343,18 @@
         <v>0.1078247727685781</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" s="2">
         <v>40940</v>
       </c>
       <c r="B88">
-        <v>0.12005279269934831</v>
+        <v>0.1200527926993483</v>
       </c>
       <c r="C88">
         <v>0.1138431488514563</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" s="2">
         <v>40969</v>
       </c>
@@ -1428,7 +1365,7 @@
         <v>0.117553105460136</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" s="2">
         <v>41000</v>
       </c>
@@ -1439,1016 +1376,1016 @@
         <v>0.1143516503332304</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" s="2">
         <v>41030</v>
       </c>
       <c r="B91">
-        <v>9.9885666420972991E-2</v>
+        <v>0.09988566642097299</v>
       </c>
       <c r="C91">
-        <v>0.10762927490710519</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.1076292749071052</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="2">
         <v>41061</v>
       </c>
       <c r="B92">
-        <v>9.5928211098030861E-2</v>
+        <v>0.09592821109803086</v>
       </c>
       <c r="C92">
         <v>0.1008980431204712</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" s="2">
         <v>41091</v>
       </c>
       <c r="B93">
-        <v>9.4581842927687107E-2</v>
+        <v>0.09458184292768711</v>
       </c>
       <c r="C93">
-        <v>9.6798573482230421E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09679857348223042</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="2">
         <v>41122</v>
       </c>
       <c r="B94">
-        <v>9.2952869643700184E-2</v>
+        <v>0.09295286964370018</v>
       </c>
       <c r="C94">
-        <v>9.4487641223139504E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0944876412231395</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="2">
         <v>41153</v>
       </c>
       <c r="B95">
-        <v>9.0233743037045927E-2</v>
+        <v>0.09023374303704593</v>
       </c>
       <c r="C95">
-        <v>9.2589485202811184E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.09258948520281118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="2">
         <v>41183</v>
       </c>
       <c r="B96">
-        <v>8.61244405610255E-2</v>
+        <v>0.0861244405610255</v>
       </c>
       <c r="C96">
-        <v>8.9770351080590657E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.08977035108059066</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="2">
         <v>41214</v>
       </c>
       <c r="B97">
-        <v>8.1731919050982246E-2</v>
+        <v>0.08173191905098225</v>
       </c>
       <c r="C97">
-        <v>8.6030034216351345E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.08603003421635134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="2">
         <v>41244</v>
       </c>
       <c r="B98">
-        <v>7.6578617010279085E-2</v>
+        <v>0.07657861701027908</v>
       </c>
       <c r="C98">
-        <v>8.1478325540762384E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.08147832554076238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="2">
         <v>41275</v>
       </c>
       <c r="B99">
-        <v>7.1459722621963678E-2</v>
+        <v>0.07145972262196368</v>
       </c>
       <c r="C99">
-        <v>7.6590086227741785E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07659008622774179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="2">
         <v>41306</v>
       </c>
       <c r="B100">
-        <v>6.8404689059679585E-2</v>
+        <v>0.06840468905967959</v>
       </c>
       <c r="C100">
-        <v>7.2147676230640889E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07214767623064089</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="2">
         <v>41334</v>
       </c>
       <c r="B101">
-        <v>6.7772016863750756E-2</v>
+        <v>0.06777201686375076</v>
       </c>
       <c r="C101">
-        <v>6.9212142848464789E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06921214284846479</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="2">
         <v>41365</v>
       </c>
       <c r="B102">
-        <v>6.915753580435291E-2</v>
+        <v>0.06915753580435291</v>
       </c>
       <c r="C102">
-        <v>6.8444747242594542E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06844474724259454</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="2">
         <v>41395</v>
       </c>
       <c r="B103">
-        <v>7.2311478573313423E-2</v>
+        <v>0.07231147857331342</v>
       </c>
       <c r="C103">
-        <v>6.9747010413805807E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06974701041380581</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="2">
         <v>41426</v>
       </c>
       <c r="B104">
-        <v>7.7431787178574935E-2</v>
+        <v>0.07743178717857493</v>
       </c>
       <c r="C104">
-        <v>7.2966933852080543E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07296693385208054</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="2">
         <v>41456</v>
       </c>
       <c r="B105">
-        <v>8.4215113418001655E-2</v>
+        <v>0.08421511341800166</v>
       </c>
       <c r="C105">
-        <v>7.7986126389963453E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07798612638996345</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="2">
         <v>41487</v>
       </c>
       <c r="B106">
-        <v>8.4471251589452762E-2</v>
+        <v>0.08447125158945276</v>
       </c>
       <c r="C106">
-        <v>8.2039384062009904E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0820393840620099</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="2">
         <v>41518</v>
       </c>
       <c r="B107">
-        <v>7.7755312888766595E-2</v>
+        <v>0.0777553128887666</v>
       </c>
       <c r="C107">
-        <v>8.214722596540712E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.08214722596540712</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="2">
         <v>41548</v>
       </c>
       <c r="B108">
-        <v>6.4707691129850975E-2</v>
+        <v>0.06470769112985097</v>
       </c>
       <c r="C108">
-        <v>7.5644751869356916E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.07564475186935692</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="2">
         <v>41579</v>
       </c>
       <c r="B109">
-        <v>5.4413637522305582E-2</v>
+        <v>0.05441363752230558</v>
       </c>
       <c r="C109">
-        <v>6.5625547180307858E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06562554718030786</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="2">
         <v>41609</v>
       </c>
       <c r="B110">
-        <v>4.7971543738563507E-2</v>
+        <v>0.04797154373856351</v>
       </c>
       <c r="C110">
-        <v>5.5697624130240167E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05569762413024017</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="2">
         <v>41640</v>
       </c>
       <c r="B111">
-        <v>4.5076783478389851E-2</v>
+        <v>0.04507678347838985</v>
       </c>
       <c r="C111">
-        <v>4.915398824641979E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04915398824641979</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="2">
         <v>41671</v>
       </c>
       <c r="B112">
-        <v>4.3854376343654043E-2</v>
+        <v>0.04385437634365404</v>
       </c>
       <c r="C112">
-        <v>4.5634234520202613E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04563423452020261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="2">
         <v>41699</v>
       </c>
       <c r="B113">
-        <v>4.4029266798485428E-2</v>
+        <v>0.04402926679848543</v>
       </c>
       <c r="C113">
-        <v>4.4320142206843237E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04432014220684324</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="2">
         <v>41730</v>
       </c>
       <c r="B114">
-        <v>4.6053975281488468E-2</v>
+        <v>0.04605397528148847</v>
       </c>
       <c r="C114">
-        <v>4.4645872807876109E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04464587280787611</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="2">
         <v>41760</v>
       </c>
       <c r="B115">
-        <v>4.7701777645479129E-2</v>
+        <v>0.04770177764547913</v>
       </c>
       <c r="C115">
-        <v>4.5928339908484467E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04592833990848447</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="2">
         <v>41791</v>
       </c>
       <c r="B116">
-        <v>4.8626841572174118E-2</v>
+        <v>0.04862684157217412</v>
       </c>
       <c r="C116">
-        <v>4.7460864833047373E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04746086483304737</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="2">
         <v>41821</v>
       </c>
       <c r="B117">
-        <v>4.871175283326043E-2</v>
+        <v>0.04871175283326043</v>
       </c>
       <c r="C117">
-        <v>4.8346790683638029E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04834679068363803</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="2">
         <v>41852</v>
       </c>
       <c r="B118">
-        <v>5.0373252923408822E-2</v>
+        <v>0.05037325292340882</v>
       </c>
       <c r="C118">
-        <v>4.9237282442947929E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04923728244294793</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="2">
         <v>41883</v>
       </c>
       <c r="B119">
-        <v>5.3769162254860101E-2</v>
+        <v>0.0537691622548601</v>
       </c>
       <c r="C119">
-        <v>5.0951389337176599E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0509513893371766</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="2">
         <v>41913</v>
       </c>
       <c r="B120">
-        <v>5.8769318162839521E-2</v>
+        <v>0.05876931816283952</v>
       </c>
       <c r="C120">
-        <v>5.4303911113702967E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05430391111370297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="2">
         <v>41944</v>
       </c>
       <c r="B121">
-        <v>6.1829058579811982E-2</v>
+        <v>0.06182905857981198</v>
       </c>
       <c r="C121">
-        <v>5.8122512999170678E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05812251299917068</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="2">
         <v>41974</v>
       </c>
       <c r="B122">
-        <v>6.266181559964952E-2</v>
+        <v>0.06266181559964952</v>
       </c>
       <c r="C122">
-        <v>6.1086730780767151E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06108673078076715</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="2">
         <v>42005</v>
       </c>
       <c r="B123">
-        <v>6.1137806006913799E-2</v>
+        <v>0.0611378060069138</v>
       </c>
       <c r="C123">
-        <v>6.1876226728791922E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06187622672879192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="2">
         <v>42036</v>
       </c>
       <c r="B124">
-        <v>6.0030206161798189E-2</v>
+        <v>0.06003020616179819</v>
       </c>
       <c r="C124">
-        <v>6.1276609256120662E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06127660925612066</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="2">
         <v>42064</v>
       </c>
       <c r="B125">
-        <v>5.9161079788432769E-2</v>
+        <v>0.05916107978843277</v>
       </c>
       <c r="C125">
-        <v>6.0109697319048402E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0601096973190484</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="2">
         <v>42095</v>
       </c>
       <c r="B126">
-        <v>5.8549763144303227E-2</v>
+        <v>0.05854976314430323</v>
       </c>
       <c r="C126">
-        <v>5.9247016364844869E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05924701636484487</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="2">
         <v>42125</v>
       </c>
       <c r="B127">
-        <v>5.7879604011164432E-2</v>
+        <v>0.05787960401116443</v>
       </c>
       <c r="C127">
-        <v>5.8530148981300288E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05853014898130029</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="2">
         <v>42156</v>
       </c>
       <c r="B128">
-        <v>5.7346714630992113E-2</v>
+        <v>0.05734671463099211</v>
       </c>
       <c r="C128">
-        <v>5.7925360595486731E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05792536059548673</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="2">
         <v>42186</v>
       </c>
       <c r="B129">
-        <v>5.6852034807380908E-2</v>
+        <v>0.05685203480738091</v>
       </c>
       <c r="C129">
-        <v>5.7359451149845947E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05735945114984595</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="2">
         <v>42217</v>
       </c>
       <c r="B130">
-        <v>5.6520352715351253E-2</v>
+        <v>0.05652035271535125</v>
       </c>
       <c r="C130">
-        <v>5.6906367384574892E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05690636738457489</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="2">
         <v>42248</v>
       </c>
       <c r="B131">
-        <v>5.6111050999811049E-2</v>
+        <v>0.05611105099981105</v>
       </c>
       <c r="C131">
-        <v>5.6494479507514538E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05649447950751454</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="2">
         <v>42278</v>
       </c>
       <c r="B132">
-        <v>5.5573520477822831E-2</v>
+        <v>0.05557352047782283</v>
       </c>
       <c r="C132">
-        <v>5.6068308064328512E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05606830806432851</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="2">
         <v>42309</v>
       </c>
       <c r="B133">
-        <v>5.4278932332091363E-2</v>
+        <v>0.05427893233209136</v>
       </c>
       <c r="C133">
-        <v>5.5321167936575211E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05532116793657521</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="2">
         <v>42339</v>
       </c>
       <c r="B134">
-        <v>5.2018261831933491E-2</v>
+        <v>0.05201826183193349</v>
       </c>
       <c r="C134">
-        <v>5.3956904880616018E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05395690488061602</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="2">
         <v>42370</v>
       </c>
       <c r="B135">
-        <v>4.9402614427036057E-2</v>
+        <v>0.04940261442703606</v>
       </c>
       <c r="C135">
-        <v>5.1899936197020428E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05189993619702043</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="2">
         <v>42401</v>
       </c>
       <c r="B136">
-        <v>4.8456447508192522E-2</v>
+        <v>0.04845644750819252</v>
       </c>
       <c r="C136">
-        <v>4.9959107922387481E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04995910792238748</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="2">
         <v>42430</v>
       </c>
       <c r="B137">
-        <v>5.0398213655801757E-2</v>
+        <v>0.05039821365580176</v>
       </c>
       <c r="C137">
-        <v>4.9419091863676913E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04941909186367691</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="2">
         <v>42461</v>
       </c>
       <c r="B138">
-        <v>5.4301592041609829E-2</v>
+        <v>0.05430159204160983</v>
       </c>
       <c r="C138">
-        <v>5.1052084401868182E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05105208440186818</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="2">
         <v>42491</v>
       </c>
       <c r="B139">
-        <v>5.5185184911399988E-2</v>
+        <v>0.05518518491139999</v>
       </c>
       <c r="C139">
-        <v>5.3294996869603997E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.053294996869604</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="2">
         <v>42522</v>
       </c>
       <c r="B140">
-        <v>5.2113817973279269E-2</v>
+        <v>0.05211381797327927</v>
       </c>
       <c r="C140">
-        <v>5.3866864975429841E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05386686497542984</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="2">
         <v>42552</v>
       </c>
       <c r="B141">
-        <v>4.5796672476915171E-2</v>
+        <v>0.04579667247691517</v>
       </c>
       <c r="C141">
-        <v>5.1031891787198282E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05103189178719828</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="2">
         <v>42583</v>
       </c>
       <c r="B142">
-        <v>4.2724407533503213E-2</v>
+        <v>0.04272440753350321</v>
       </c>
       <c r="C142">
-        <v>4.6878299327899359E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04687829932789936</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="2">
         <v>42614</v>
       </c>
       <c r="B143">
-        <v>4.3767271072262318E-2</v>
+        <v>0.04376727107226232</v>
       </c>
       <c r="C143">
-        <v>4.4096117027560382E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04409611702756038</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="2">
         <v>42644</v>
       </c>
       <c r="B144">
-        <v>4.889998400952085E-2</v>
+        <v>0.04889998400952085</v>
       </c>
       <c r="C144">
-        <v>4.5130554205095617E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04513055420509562</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="2">
         <v>42675</v>
       </c>
       <c r="B145">
-        <v>5.4243212666303817E-2</v>
+        <v>0.05424321266630382</v>
       </c>
       <c r="C145">
-        <v>4.8970155916029157E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04897015591602916</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="2">
         <v>42705</v>
       </c>
       <c r="B146">
-        <v>5.9461195948470387E-2</v>
+        <v>0.05946119594847039</v>
       </c>
       <c r="C146">
-        <v>5.4201464208098522E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05420146420809852</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="2">
         <v>42736</v>
       </c>
       <c r="B147">
-        <v>6.4185962012672293E-2</v>
+        <v>0.06418596201267229</v>
       </c>
       <c r="C147">
-        <v>5.9296790209148999E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.059296790209149</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="2">
         <v>42767</v>
       </c>
       <c r="B148">
-        <v>6.593543556620797E-2</v>
+        <v>0.06593543556620797</v>
       </c>
       <c r="C148">
-        <v>6.3194197842450381E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06319419784245038</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="2">
         <v>42795</v>
       </c>
       <c r="B149">
-        <v>6.3507481665404347E-2</v>
+        <v>0.06350748166540435</v>
       </c>
       <c r="C149">
-        <v>6.4542959748095041E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06454295974809504</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="2">
         <v>42826</v>
       </c>
       <c r="B150">
-        <v>5.7453619529148278E-2</v>
+        <v>0.05745361952914828</v>
       </c>
       <c r="C150">
-        <v>6.2298845586920372E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06229884558692037</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="2">
         <v>42856</v>
       </c>
       <c r="B151">
-        <v>5.3803031041036127E-2</v>
+        <v>0.05380303104103613</v>
       </c>
       <c r="C151">
-        <v>5.8254710745196427E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05825471074519643</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="2">
         <v>42887</v>
       </c>
       <c r="B152">
-        <v>5.3577197486650768E-2</v>
+        <v>0.05357719748665077</v>
       </c>
       <c r="C152">
-        <v>5.4944616018945243E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05494461601894524</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="2">
         <v>42917</v>
       </c>
       <c r="B153">
-        <v>5.6391880842487661E-2</v>
+        <v>0.05639188084248766</v>
       </c>
       <c r="C153">
-        <v>5.4590703123391697E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0545907031233917</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="2">
         <v>42948</v>
       </c>
       <c r="B154">
-        <v>5.7521753540207228E-2</v>
+        <v>0.05752175354020723</v>
       </c>
       <c r="C154">
-        <v>5.5830277289782071E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05583027728978207</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="2">
         <v>42979</v>
       </c>
       <c r="B155">
-        <v>5.6575176664722497E-2</v>
+        <v>0.0565751766647225</v>
       </c>
       <c r="C155">
-        <v>5.6829603682472647E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05682960368247265</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="2">
         <v>43009</v>
       </c>
       <c r="B156">
-        <v>5.3370358281918537E-2</v>
+        <v>0.05337035828191854</v>
       </c>
       <c r="C156">
-        <v>5.582242949561627E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05582242949561627</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="2">
         <v>43040</v>
       </c>
       <c r="B157">
-        <v>5.0189823411626838E-2</v>
+        <v>0.05018982341162684</v>
       </c>
       <c r="C157">
-        <v>5.3378452786089471E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05337845278608947</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="2">
         <v>43070</v>
       </c>
       <c r="B158">
-        <v>4.7458008827945042E-2</v>
+        <v>0.04745800882794504</v>
       </c>
       <c r="C158">
-        <v>5.0339396840496993E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05033939684049699</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="2">
         <v>43101</v>
       </c>
       <c r="B159">
-        <v>4.5155179064550667E-2</v>
+        <v>0.04515517906455067</v>
       </c>
       <c r="C159">
-        <v>4.7601003768041029E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04760100376804103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="2">
         <v>43132</v>
       </c>
       <c r="B160">
-        <v>4.1971123175243409E-2</v>
+        <v>0.04197112317524341</v>
       </c>
       <c r="C160">
-        <v>4.4861437022579893E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04486143702257989</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="2">
         <v>43160</v>
       </c>
       <c r="B161">
-        <v>3.8296224645893592E-2</v>
+        <v>0.03829622464589359</v>
       </c>
       <c r="C161">
-        <v>4.1807508961896077E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04180750896189608</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="2">
         <v>43191</v>
       </c>
       <c r="B162">
-        <v>3.4441681496944258E-2</v>
+        <v>0.03444168149694426</v>
       </c>
       <c r="C162">
-        <v>3.8236343106027269E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03823634310602727</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="2">
         <v>43221</v>
       </c>
       <c r="B163">
-        <v>3.2284304629962318E-2</v>
+        <v>0.03228430462996232</v>
       </c>
       <c r="C163">
-        <v>3.5007403590933579E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03500740359093358</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="2">
         <v>43252</v>
       </c>
       <c r="B164">
-        <v>3.1595226369464678E-2</v>
+        <v>0.03159522636946468</v>
       </c>
       <c r="C164">
-        <v>3.277373749879061E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03277373749879061</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="2">
         <v>43282</v>
       </c>
       <c r="B165">
-        <v>3.2447041940905037E-2</v>
+        <v>0.03244704194090504</v>
       </c>
       <c r="C165">
-        <v>3.2108857646777539E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03210885764677754</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="2">
         <v>43313</v>
       </c>
       <c r="B166">
-        <v>3.4570153245806673E-2</v>
+        <v>0.03457015324580667</v>
       </c>
       <c r="C166">
-        <v>3.2870807185392321E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03287080718539232</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="2">
         <v>43344</v>
       </c>
       <c r="B167">
-        <v>3.7682736701765633E-2</v>
+        <v>0.03768273670176563</v>
       </c>
       <c r="C167">
-        <v>3.4899977296159297E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0348999772961593</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="2">
         <v>43374</v>
       </c>
       <c r="B168">
-        <v>4.1529649488200197E-2</v>
+        <v>0.0415296494882002</v>
       </c>
       <c r="C168">
-        <v>3.7927513145257677E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03792751314525768</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="2">
         <v>43405</v>
       </c>
       <c r="B169">
-        <v>4.2637455489150843E-2</v>
+        <v>0.04263745548915084</v>
       </c>
       <c r="C169">
-        <v>4.0616613893039083E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04061661389303908</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="2">
         <v>43435</v>
       </c>
       <c r="B170">
-        <v>4.0486334498906727E-2</v>
+        <v>0.04048633449890673</v>
       </c>
       <c r="C170">
-        <v>4.1551146492086112E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.04155114649208611</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="2">
         <v>43466</v>
       </c>
       <c r="B171">
-        <v>3.5122810182507389E-2</v>
+        <v>0.03512281018250739</v>
       </c>
       <c r="C171">
-        <v>3.9415533390188502E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0394155333901885</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="2">
         <v>43497</v>
       </c>
       <c r="B172">
-        <v>3.1350782946155988E-2</v>
+        <v>0.03135078294615599</v>
       </c>
       <c r="C172">
-        <v>3.5653309209190222E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03565330920919022</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="2">
         <v>43525</v>
       </c>
       <c r="B173">
-        <v>2.9626466328890929E-2</v>
+        <v>0.02962646632889093</v>
       </c>
       <c r="C173">
-        <v>3.2033353152518283E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03203335315251828</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="2">
         <v>43556</v>
       </c>
       <c r="B174">
-        <v>3.005943092980461E-2</v>
+        <v>0.03005943092980461</v>
       </c>
       <c r="C174">
-        <v>3.0345560068284021E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03034556006828402</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="2">
         <v>43586</v>
       </c>
       <c r="B175">
-        <v>3.071052000107E-2</v>
+        <v>0.03071052000107</v>
       </c>
       <c r="C175">
-        <v>3.013213908658869E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03013213908658869</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="2">
         <v>43617</v>
       </c>
       <c r="B176">
-        <v>3.1544236554037458E-2</v>
+        <v>0.03154423655403746</v>
       </c>
       <c r="C176">
-        <v>3.07713958283042E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0307713958283042</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="2">
         <v>43647</v>
       </c>
       <c r="B177">
-        <v>3.2256485876794173E-2</v>
+        <v>0.03225648587679417</v>
       </c>
       <c r="C177">
-        <v>3.1503747477300718E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03150374747730072</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="2">
         <v>43678</v>
       </c>
       <c r="B178">
-        <v>3.3479896759587187E-2</v>
+        <v>0.03347989675958719</v>
       </c>
       <c r="C178">
-        <v>3.2426873063473118E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03242687306347312</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="2">
         <v>43709</v>
       </c>
       <c r="B179">
-        <v>3.509166326450118E-2</v>
+        <v>0.03509166326450118</v>
       </c>
       <c r="C179">
-        <v>3.3609348633627703E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0336093486336277</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="2">
         <v>43739</v>
       </c>
       <c r="B180">
-        <v>3.7085825538410472E-2</v>
+        <v>0.03708582553841047</v>
       </c>
       <c r="C180">
-        <v>3.5219128520833143E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03521912852083314</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="2">
         <v>43770</v>
       </c>
       <c r="B181">
-        <v>3.7903248208344342E-2</v>
+        <v>0.03790324820834434</v>
       </c>
       <c r="C181">
-        <v>3.669357900375219E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03669357900375219</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="2">
         <v>43800</v>
       </c>
       <c r="B182">
-        <v>3.7890694466140469E-2</v>
+        <v>0.03789069446614047</v>
       </c>
       <c r="C182">
-        <v>3.7626589404298617E-2</v>
+        <v>0.03762658940429862</v>
       </c>
     </row>
   </sheetData>
